--- a/phoenix_grid_template_v3.xlsx
+++ b/phoenix_grid_template_v3.xlsx
@@ -458,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N267"/>
+  <dimension ref="A1:N262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,7 +660,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <f>== KIS API ===  </f>
+        <f>== KIS API 설정 ===</f>
         <v/>
       </c>
     </row>
@@ -691,7 +691,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KIS Account No</t>
+          <t>KIS 계좌번호</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -703,192 +703,300 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>System Running (TRUE=Start, FALSE=Stop)</t>
+          <t>시스템 실행 (TRUE=시작, FALSE=중지)</t>
         </is>
       </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16">
-        <f>== KIS API 설정 ===</f>
+    <row r="16"/>
+    <row r="17">
+      <c r="A17" s="1">
+        <f>== 텔레그램 알림 ===</f>
         <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>KIS APP KEY</t>
-        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>KIS APP SECRET</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>your_kis_app_secret_here</t>
+          <t>텔레그램 ID</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>KIS 계좌번호</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>12345678-01</t>
+          <t>텔레그램 Token</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>시스템 실행 (TRUE=시작, FALSE=중지)</t>
-        </is>
-      </c>
-      <c r="B20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21"/>
+          <t>알림 활성화</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Excel 업데이트 주기 (초)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+    </row>
     <row r="22">
-      <c r="A22" s="1">
-        <f>== 텔레그램 알림 ===</f>
-        <v/>
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>티어</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>시드비%</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>매수%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>매도%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>티어</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>잔고량</t>
+        </is>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>투자금</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>티어평단</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr">
+        <is>
+          <t>매수(가)</t>
+        </is>
+      </c>
+      <c r="L22" s="3" t="inlineStr">
+        <is>
+          <t>매수(량)</t>
+        </is>
+      </c>
+      <c r="M22" s="3" t="inlineStr">
+        <is>
+          <t>매도(가)</t>
+        </is>
+      </c>
+      <c r="N22" s="3" t="inlineStr">
+        <is>
+          <t>매도(량)</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>텔레그램 ID</t>
-        </is>
-      </c>
+      <c r="A23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>기준가 (거래 설정 시 매매 가능)</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6" t="inlineStr"/>
+      <c r="L23" s="4" t="inlineStr"/>
+      <c r="M23" s="6" t="inlineStr"/>
+      <c r="N23" s="4" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>텔레그램 Token</t>
-        </is>
-      </c>
+      <c r="A24" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E24" s="4" t="inlineStr"/>
+      <c r="G24" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6" t="inlineStr"/>
+      <c r="L24" s="4" t="inlineStr"/>
+      <c r="M24" s="6" t="inlineStr"/>
+      <c r="N24" s="4" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>알림 활성화</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
+      <c r="A25" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E25" s="4" t="inlineStr"/>
+      <c r="G25" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6" t="inlineStr"/>
+      <c r="L25" s="4" t="inlineStr"/>
+      <c r="M25" s="6" t="inlineStr"/>
+      <c r="N25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Excel 업데이트 주기 (초)</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
+      <c r="A26" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E26" s="4" t="inlineStr"/>
+      <c r="G26" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6" t="inlineStr"/>
+      <c r="L26" s="4" t="inlineStr"/>
+      <c r="M26" s="6" t="inlineStr"/>
+      <c r="N26" s="4" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>티어</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>시드비%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>매수%</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>매도%</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>비고</t>
-        </is>
-      </c>
-      <c r="G27" s="3" t="inlineStr">
-        <is>
-          <t>티어</t>
-        </is>
-      </c>
-      <c r="H27" s="3" t="inlineStr">
-        <is>
-          <t>잔고량</t>
-        </is>
-      </c>
-      <c r="I27" s="3" t="inlineStr">
-        <is>
-          <t>투자금</t>
-        </is>
-      </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>티어평단</t>
-        </is>
-      </c>
-      <c r="K27" s="3" t="inlineStr">
-        <is>
-          <t>매수(가)</t>
-        </is>
-      </c>
-      <c r="L27" s="3" t="inlineStr">
-        <is>
-          <t>매수(량)</t>
-        </is>
-      </c>
-      <c r="M27" s="3" t="inlineStr">
-        <is>
-          <t>매도(가)</t>
-        </is>
-      </c>
-      <c r="N27" s="3" t="inlineStr">
-        <is>
-          <t>매도(량)</t>
-        </is>
-      </c>
+      <c r="A27" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E27" s="4" t="inlineStr"/>
+      <c r="G27" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6" t="inlineStr"/>
+      <c r="L27" s="4" t="inlineStr"/>
+      <c r="M27" s="6" t="inlineStr"/>
+      <c r="N27" s="4" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0</v>
+        <v>-0.025</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.03</v>
       </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>기준가 (거래 설정 시 매매 가능)</t>
-        </is>
-      </c>
+      <c r="E28" s="4" t="inlineStr"/>
       <c r="G28" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H28" s="4" t="n">
         <v>0</v>
@@ -906,20 +1014,20 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>0.005</v>
+        <v>0.03</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.005</v>
+        <v>-0.03</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E29" s="4" t="inlineStr"/>
       <c r="G29" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H29" s="4" t="n">
         <v>0</v>
@@ -937,20 +1045,20 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.01</v>
+        <v>0.035</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.01</v>
+        <v>-0.035</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E30" s="4" t="inlineStr"/>
       <c r="G30" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H30" s="4" t="n">
         <v>0</v>
@@ -968,20 +1076,20 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.015</v>
+        <v>0.04</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>-0.015</v>
+        <v>-0.04</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E31" s="4" t="inlineStr"/>
       <c r="G31" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H31" s="4" t="n">
         <v>0</v>
@@ -999,20 +1107,20 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0.02</v>
+        <v>0.045</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>-0.02</v>
+        <v>-0.045</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E32" s="4" t="inlineStr"/>
       <c r="G32" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H32" s="4" t="n">
         <v>0</v>
@@ -1030,20 +1138,20 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>0.025</v>
+        <v>0.05</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>-0.025</v>
+        <v>-0.05</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E33" s="4" t="inlineStr"/>
       <c r="G33" s="4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H33" s="4" t="n">
         <v>0</v>
@@ -1061,20 +1169,20 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>0.03</v>
+        <v>0.055</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>-0.03</v>
+        <v>-0.055</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E34" s="4" t="inlineStr"/>
       <c r="G34" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H34" s="4" t="n">
         <v>0</v>
@@ -1092,20 +1200,20 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.035</v>
+        <v>0.06</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.035</v>
+        <v>-0.06</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E35" s="4" t="inlineStr"/>
       <c r="G35" s="4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H35" s="4" t="n">
         <v>0</v>
@@ -1123,20 +1231,20 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>0.04</v>
+        <v>0.065</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-0.04</v>
+        <v>-0.065</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E36" s="4" t="inlineStr"/>
       <c r="G36" s="4" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H36" s="4" t="n">
         <v>0</v>
@@ -1154,20 +1262,20 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>0.045</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>-0.045</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E37" s="4" t="inlineStr"/>
       <c r="G37" s="4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H37" s="4" t="n">
         <v>0</v>
@@ -1185,20 +1293,20 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>-0.05</v>
+        <v>-0.075</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E38" s="4" t="inlineStr"/>
       <c r="G38" s="4" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H38" s="4" t="n">
         <v>0</v>
@@ -1216,20 +1324,20 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>0.055</v>
+        <v>0.08</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>-0.055</v>
+        <v>-0.08</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E39" s="4" t="inlineStr"/>
       <c r="G39" s="4" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H39" s="4" t="n">
         <v>0</v>
@@ -1247,20 +1355,20 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>0.06</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>-0.06</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E40" s="4" t="inlineStr"/>
       <c r="G40" s="4" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H40" s="4" t="n">
         <v>0</v>
@@ -1278,20 +1386,20 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>0.065</v>
+        <v>0.09</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.065</v>
+        <v>-0.09</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E41" s="4" t="inlineStr"/>
       <c r="G41" s="4" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H41" s="4" t="n">
         <v>0</v>
@@ -1309,20 +1417,20 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.095</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E42" s="4" t="inlineStr"/>
       <c r="G42" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H42" s="4" t="n">
         <v>0</v>
@@ -1340,20 +1448,20 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>0.075</v>
+        <v>0.1</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>-0.075</v>
+        <v>-0.1</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E43" s="4" t="inlineStr"/>
       <c r="G43" s="4" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H43" s="4" t="n">
         <v>0</v>
@@ -1371,20 +1479,20 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>0.08</v>
+        <v>0.105</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>-0.08</v>
+        <v>-0.105</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E44" s="4" t="inlineStr"/>
       <c r="G44" s="4" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H44" s="4" t="n">
         <v>0</v>
@@ -1402,20 +1510,20 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>-0.08500000000000001</v>
+        <v>-0.11</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E45" s="4" t="inlineStr"/>
       <c r="G45" s="4" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H45" s="4" t="n">
         <v>0</v>
@@ -1433,20 +1541,20 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>0.09</v>
+        <v>0.115</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>-0.09</v>
+        <v>-0.115</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E46" s="4" t="inlineStr"/>
       <c r="G46" s="4" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H46" s="4" t="n">
         <v>0</v>
@@ -1464,20 +1572,20 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>0.095</v>
+        <v>0.12</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.095</v>
+        <v>-0.12</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E47" s="4" t="inlineStr"/>
       <c r="G47" s="4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H47" s="4" t="n">
         <v>0</v>
@@ -1495,20 +1603,20 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B48" s="5" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.1</v>
+        <v>-0.125</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E48" s="4" t="inlineStr"/>
       <c r="G48" s="4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H48" s="4" t="n">
         <v>0</v>
@@ -1526,20 +1634,20 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B49" s="5" t="n">
-        <v>0.105</v>
+        <v>0.13</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>-0.105</v>
+        <v>-0.13</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E49" s="4" t="inlineStr"/>
       <c r="G49" s="4" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H49" s="4" t="n">
         <v>0</v>
@@ -1557,20 +1665,20 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B50" s="5" t="n">
-        <v>0.11</v>
+        <v>0.135</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>-0.11</v>
+        <v>-0.135</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E50" s="4" t="inlineStr"/>
       <c r="G50" s="4" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H50" s="4" t="n">
         <v>0</v>
@@ -1588,20 +1696,20 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B51" s="5" t="n">
-        <v>0.115</v>
+        <v>0.14</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>-0.115</v>
+        <v>-0.14</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E51" s="4" t="inlineStr"/>
       <c r="G51" s="4" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H51" s="4" t="n">
         <v>0</v>
@@ -1619,20 +1727,20 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B52" s="5" t="n">
-        <v>0.12</v>
+        <v>0.145</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>-0.12</v>
+        <v>-0.145</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E52" s="4" t="inlineStr"/>
       <c r="G52" s="4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H52" s="4" t="n">
         <v>0</v>
@@ -1650,20 +1758,20 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B53" s="5" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.125</v>
+        <v>-0.15</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E53" s="4" t="inlineStr"/>
       <c r="G53" s="4" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H53" s="4" t="n">
         <v>0</v>
@@ -1681,20 +1789,20 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B54" s="5" t="n">
-        <v>0.13</v>
+        <v>0.155</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.155</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E54" s="4" t="inlineStr"/>
       <c r="G54" s="4" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H54" s="4" t="n">
         <v>0</v>
@@ -1712,20 +1820,20 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B55" s="5" t="n">
-        <v>0.135</v>
+        <v>0.16</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>-0.135</v>
+        <v>-0.16</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E55" s="4" t="inlineStr"/>
       <c r="G55" s="4" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H55" s="4" t="n">
         <v>0</v>
@@ -1743,20 +1851,20 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B56" s="5" t="n">
-        <v>0.14</v>
+        <v>0.165</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>-0.14</v>
+        <v>-0.165</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E56" s="4" t="inlineStr"/>
       <c r="G56" s="4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H56" s="4" t="n">
         <v>0</v>
@@ -1774,20 +1882,20 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B57" s="5" t="n">
-        <v>0.145</v>
+        <v>0.17</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>-0.145</v>
+        <v>-0.17</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E57" s="4" t="inlineStr"/>
       <c r="G57" s="4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H57" s="4" t="n">
         <v>0</v>
@@ -1805,20 +1913,20 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B58" s="5" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>-0.15</v>
+        <v>-0.175</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E58" s="4" t="inlineStr"/>
       <c r="G58" s="4" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H58" s="4" t="n">
         <v>0</v>
@@ -1836,20 +1944,20 @@
     </row>
     <row r="59">
       <c r="A59" s="4" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B59" s="5" t="n">
-        <v>0.155</v>
+        <v>0.18</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>-0.155</v>
+        <v>-0.18</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E59" s="4" t="inlineStr"/>
       <c r="G59" s="4" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H59" s="4" t="n">
         <v>0</v>
@@ -1867,20 +1975,20 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B60" s="5" t="n">
-        <v>0.16</v>
+        <v>0.185</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>-0.16</v>
+        <v>-0.185</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E60" s="4" t="inlineStr"/>
       <c r="G60" s="4" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H60" s="4" t="n">
         <v>0</v>
@@ -1898,20 +2006,20 @@
     </row>
     <row r="61">
       <c r="A61" s="4" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B61" s="5" t="n">
-        <v>0.165</v>
+        <v>0.19</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>-0.165</v>
+        <v>-0.19</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E61" s="4" t="inlineStr"/>
       <c r="G61" s="4" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H61" s="4" t="n">
         <v>0</v>
@@ -1929,20 +2037,20 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B62" s="5" t="n">
-        <v>0.17</v>
+        <v>0.195</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>-0.17</v>
+        <v>-0.195</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E62" s="4" t="inlineStr"/>
       <c r="G62" s="4" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H62" s="4" t="n">
         <v>0</v>
@@ -1960,20 +2068,20 @@
     </row>
     <row r="63">
       <c r="A63" s="4" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B63" s="5" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>-0.175</v>
+        <v>-0.2</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E63" s="4" t="inlineStr"/>
       <c r="G63" s="4" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H63" s="4" t="n">
         <v>0</v>
@@ -1991,20 +2099,20 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B64" s="5" t="n">
-        <v>0.18</v>
+        <v>0.205</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>-0.18</v>
+        <v>-0.205</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E64" s="4" t="inlineStr"/>
       <c r="G64" s="4" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H64" s="4" t="n">
         <v>0</v>
@@ -2022,20 +2130,20 @@
     </row>
     <row r="65">
       <c r="A65" s="4" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B65" s="5" t="n">
-        <v>0.185</v>
+        <v>0.21</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>-0.185</v>
+        <v>-0.21</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E65" s="4" t="inlineStr"/>
       <c r="G65" s="4" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H65" s="4" t="n">
         <v>0</v>
@@ -2053,20 +2161,20 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B66" s="5" t="n">
-        <v>0.19</v>
+        <v>0.215</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>-0.19</v>
+        <v>-0.215</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E66" s="4" t="inlineStr"/>
       <c r="G66" s="4" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H66" s="4" t="n">
         <v>0</v>
@@ -2084,20 +2192,20 @@
     </row>
     <row r="67">
       <c r="A67" s="4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B67" s="5" t="n">
-        <v>0.195</v>
+        <v>0.22</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>-0.195</v>
+        <v>-0.22</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E67" s="4" t="inlineStr"/>
       <c r="G67" s="4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H67" s="4" t="n">
         <v>0</v>
@@ -2115,20 +2223,20 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B68" s="5" t="n">
-        <v>0.2</v>
+        <v>0.225</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>-0.2</v>
+        <v>-0.225</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E68" s="4" t="inlineStr"/>
       <c r="G68" s="4" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H68" s="4" t="n">
         <v>0</v>
@@ -2146,20 +2254,20 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B69" s="5" t="n">
-        <v>0.205</v>
+        <v>0.23</v>
       </c>
       <c r="C69" s="5" t="n">
-        <v>-0.205</v>
+        <v>-0.23</v>
       </c>
       <c r="D69" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E69" s="4" t="inlineStr"/>
       <c r="G69" s="4" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H69" s="4" t="n">
         <v>0</v>
@@ -2177,20 +2285,20 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B70" s="5" t="n">
-        <v>0.21</v>
+        <v>0.235</v>
       </c>
       <c r="C70" s="5" t="n">
-        <v>-0.21</v>
+        <v>-0.235</v>
       </c>
       <c r="D70" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E70" s="4" t="inlineStr"/>
       <c r="G70" s="4" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H70" s="4" t="n">
         <v>0</v>
@@ -2208,20 +2316,20 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B71" s="5" t="n">
-        <v>0.215</v>
+        <v>0.24</v>
       </c>
       <c r="C71" s="5" t="n">
-        <v>-0.215</v>
+        <v>-0.24</v>
       </c>
       <c r="D71" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E71" s="4" t="inlineStr"/>
       <c r="G71" s="4" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H71" s="4" t="n">
         <v>0</v>
@@ -2239,20 +2347,20 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B72" s="5" t="n">
-        <v>0.22</v>
+        <v>0.245</v>
       </c>
       <c r="C72" s="5" t="n">
-        <v>-0.22</v>
+        <v>-0.245</v>
       </c>
       <c r="D72" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E72" s="4" t="inlineStr"/>
       <c r="G72" s="4" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H72" s="4" t="n">
         <v>0</v>
@@ -2270,20 +2378,20 @@
     </row>
     <row r="73">
       <c r="A73" s="4" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B73" s="5" t="n">
-        <v>0.225</v>
+        <v>0.25</v>
       </c>
       <c r="C73" s="5" t="n">
-        <v>-0.225</v>
+        <v>-0.25</v>
       </c>
       <c r="D73" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E73" s="4" t="inlineStr"/>
       <c r="G73" s="4" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H73" s="4" t="n">
         <v>0</v>
@@ -2301,20 +2409,20 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B74" s="5" t="n">
-        <v>0.23</v>
+        <v>0.255</v>
       </c>
       <c r="C74" s="5" t="n">
-        <v>-0.23</v>
+        <v>-0.255</v>
       </c>
       <c r="D74" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E74" s="4" t="inlineStr"/>
       <c r="G74" s="4" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H74" s="4" t="n">
         <v>0</v>
@@ -2332,20 +2440,20 @@
     </row>
     <row r="75">
       <c r="A75" s="4" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B75" s="5" t="n">
-        <v>0.235</v>
+        <v>0.26</v>
       </c>
       <c r="C75" s="5" t="n">
-        <v>-0.235</v>
+        <v>-0.26</v>
       </c>
       <c r="D75" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E75" s="4" t="inlineStr"/>
       <c r="G75" s="4" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H75" s="4" t="n">
         <v>0</v>
@@ -2363,20 +2471,20 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B76" s="5" t="n">
-        <v>0.24</v>
+        <v>0.265</v>
       </c>
       <c r="C76" s="5" t="n">
-        <v>-0.24</v>
+        <v>-0.265</v>
       </c>
       <c r="D76" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E76" s="4" t="inlineStr"/>
       <c r="G76" s="4" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H76" s="4" t="n">
         <v>0</v>
@@ -2394,20 +2502,20 @@
     </row>
     <row r="77">
       <c r="A77" s="4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B77" s="5" t="n">
-        <v>0.245</v>
+        <v>0.27</v>
       </c>
       <c r="C77" s="5" t="n">
-        <v>-0.245</v>
+        <v>-0.27</v>
       </c>
       <c r="D77" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E77" s="4" t="inlineStr"/>
       <c r="G77" s="4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H77" s="4" t="n">
         <v>0</v>
@@ -2425,20 +2533,20 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B78" s="5" t="n">
-        <v>0.25</v>
+        <v>0.275</v>
       </c>
       <c r="C78" s="5" t="n">
-        <v>-0.25</v>
+        <v>-0.275</v>
       </c>
       <c r="D78" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E78" s="4" t="inlineStr"/>
       <c r="G78" s="4" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H78" s="4" t="n">
         <v>0</v>
@@ -2456,20 +2564,20 @@
     </row>
     <row r="79">
       <c r="A79" s="4" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B79" s="5" t="n">
-        <v>0.255</v>
+        <v>0.28</v>
       </c>
       <c r="C79" s="5" t="n">
-        <v>-0.255</v>
+        <v>-0.28</v>
       </c>
       <c r="D79" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E79" s="4" t="inlineStr"/>
       <c r="G79" s="4" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H79" s="4" t="n">
         <v>0</v>
@@ -2487,20 +2595,20 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B80" s="5" t="n">
-        <v>0.26</v>
+        <v>0.285</v>
       </c>
       <c r="C80" s="5" t="n">
-        <v>-0.26</v>
+        <v>-0.285</v>
       </c>
       <c r="D80" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E80" s="4" t="inlineStr"/>
       <c r="G80" s="4" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H80" s="4" t="n">
         <v>0</v>
@@ -2518,20 +2626,20 @@
     </row>
     <row r="81">
       <c r="A81" s="4" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B81" s="5" t="n">
-        <v>0.265</v>
+        <v>0.29</v>
       </c>
       <c r="C81" s="5" t="n">
-        <v>-0.265</v>
+        <v>-0.29</v>
       </c>
       <c r="D81" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E81" s="4" t="inlineStr"/>
       <c r="G81" s="4" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H81" s="4" t="n">
         <v>0</v>
@@ -2549,20 +2657,20 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B82" s="5" t="n">
-        <v>0.27</v>
+        <v>0.295</v>
       </c>
       <c r="C82" s="5" t="n">
-        <v>-0.27</v>
+        <v>-0.295</v>
       </c>
       <c r="D82" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E82" s="4" t="inlineStr"/>
       <c r="G82" s="4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H82" s="4" t="n">
         <v>0</v>
@@ -2580,20 +2688,20 @@
     </row>
     <row r="83">
       <c r="A83" s="4" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B83" s="5" t="n">
-        <v>0.275</v>
+        <v>0.3</v>
       </c>
       <c r="C83" s="5" t="n">
-        <v>-0.275</v>
+        <v>-0.3</v>
       </c>
       <c r="D83" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E83" s="4" t="inlineStr"/>
       <c r="G83" s="4" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H83" s="4" t="n">
         <v>0</v>
@@ -2611,20 +2719,20 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B84" s="5" t="n">
-        <v>0.28</v>
+        <v>0.305</v>
       </c>
       <c r="C84" s="5" t="n">
-        <v>-0.28</v>
+        <v>-0.305</v>
       </c>
       <c r="D84" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E84" s="4" t="inlineStr"/>
       <c r="G84" s="4" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H84" s="4" t="n">
         <v>0</v>
@@ -2642,20 +2750,20 @@
     </row>
     <row r="85">
       <c r="A85" s="4" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B85" s="5" t="n">
-        <v>0.285</v>
+        <v>0.31</v>
       </c>
       <c r="C85" s="5" t="n">
-        <v>-0.285</v>
+        <v>-0.31</v>
       </c>
       <c r="D85" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E85" s="4" t="inlineStr"/>
       <c r="G85" s="4" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H85" s="4" t="n">
         <v>0</v>
@@ -2673,20 +2781,20 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B86" s="5" t="n">
-        <v>0.29</v>
+        <v>0.315</v>
       </c>
       <c r="C86" s="5" t="n">
-        <v>-0.29</v>
+        <v>-0.315</v>
       </c>
       <c r="D86" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E86" s="4" t="inlineStr"/>
       <c r="G86" s="4" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H86" s="4" t="n">
         <v>0</v>
@@ -2704,20 +2812,20 @@
     </row>
     <row r="87">
       <c r="A87" s="4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B87" s="5" t="n">
-        <v>0.295</v>
+        <v>0.32</v>
       </c>
       <c r="C87" s="5" t="n">
-        <v>-0.295</v>
+        <v>-0.32</v>
       </c>
       <c r="D87" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E87" s="4" t="inlineStr"/>
       <c r="G87" s="4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H87" s="4" t="n">
         <v>0</v>
@@ -2735,20 +2843,20 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B88" s="5" t="n">
-        <v>0.3</v>
+        <v>0.325</v>
       </c>
       <c r="C88" s="5" t="n">
-        <v>-0.3</v>
+        <v>-0.325</v>
       </c>
       <c r="D88" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E88" s="4" t="inlineStr"/>
       <c r="G88" s="4" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H88" s="4" t="n">
         <v>0</v>
@@ -2766,20 +2874,20 @@
     </row>
     <row r="89">
       <c r="A89" s="4" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B89" s="5" t="n">
-        <v>0.305</v>
+        <v>0.33</v>
       </c>
       <c r="C89" s="5" t="n">
-        <v>-0.305</v>
+        <v>-0.33</v>
       </c>
       <c r="D89" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E89" s="4" t="inlineStr"/>
       <c r="G89" s="4" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H89" s="4" t="n">
         <v>0</v>
@@ -2797,20 +2905,20 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B90" s="5" t="n">
-        <v>0.31</v>
+        <v>0.335</v>
       </c>
       <c r="C90" s="5" t="n">
-        <v>-0.31</v>
+        <v>-0.335</v>
       </c>
       <c r="D90" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E90" s="4" t="inlineStr"/>
       <c r="G90" s="4" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H90" s="4" t="n">
         <v>0</v>
@@ -2828,20 +2936,20 @@
     </row>
     <row r="91">
       <c r="A91" s="4" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B91" s="5" t="n">
-        <v>0.315</v>
+        <v>0.34</v>
       </c>
       <c r="C91" s="5" t="n">
-        <v>-0.315</v>
+        <v>-0.34</v>
       </c>
       <c r="D91" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E91" s="4" t="inlineStr"/>
       <c r="G91" s="4" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H91" s="4" t="n">
         <v>0</v>
@@ -2859,20 +2967,20 @@
     </row>
     <row r="92">
       <c r="A92" s="4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B92" s="5" t="n">
-        <v>0.32</v>
+        <v>0.345</v>
       </c>
       <c r="C92" s="5" t="n">
-        <v>-0.32</v>
+        <v>-0.345</v>
       </c>
       <c r="D92" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E92" s="4" t="inlineStr"/>
       <c r="G92" s="4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H92" s="4" t="n">
         <v>0</v>
@@ -2890,20 +2998,20 @@
     </row>
     <row r="93">
       <c r="A93" s="4" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B93" s="5" t="n">
-        <v>0.325</v>
+        <v>0.35</v>
       </c>
       <c r="C93" s="5" t="n">
-        <v>-0.325</v>
+        <v>-0.35</v>
       </c>
       <c r="D93" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E93" s="4" t="inlineStr"/>
       <c r="G93" s="4" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H93" s="4" t="n">
         <v>0</v>
@@ -2921,20 +3029,20 @@
     </row>
     <row r="94">
       <c r="A94" s="4" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B94" s="5" t="n">
-        <v>0.33</v>
+        <v>0.355</v>
       </c>
       <c r="C94" s="5" t="n">
-        <v>-0.33</v>
+        <v>-0.355</v>
       </c>
       <c r="D94" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E94" s="4" t="inlineStr"/>
       <c r="G94" s="4" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H94" s="4" t="n">
         <v>0</v>
@@ -2952,20 +3060,20 @@
     </row>
     <row r="95">
       <c r="A95" s="4" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B95" s="5" t="n">
-        <v>0.335</v>
+        <v>0.36</v>
       </c>
       <c r="C95" s="5" t="n">
-        <v>-0.335</v>
+        <v>-0.36</v>
       </c>
       <c r="D95" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E95" s="4" t="inlineStr"/>
       <c r="G95" s="4" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H95" s="4" t="n">
         <v>0</v>
@@ -2983,20 +3091,20 @@
     </row>
     <row r="96">
       <c r="A96" s="4" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B96" s="5" t="n">
-        <v>0.34</v>
+        <v>0.365</v>
       </c>
       <c r="C96" s="5" t="n">
-        <v>-0.34</v>
+        <v>-0.365</v>
       </c>
       <c r="D96" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E96" s="4" t="inlineStr"/>
       <c r="G96" s="4" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H96" s="4" t="n">
         <v>0</v>
@@ -3014,20 +3122,20 @@
     </row>
     <row r="97">
       <c r="A97" s="4" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B97" s="5" t="n">
-        <v>0.345</v>
+        <v>0.37</v>
       </c>
       <c r="C97" s="5" t="n">
-        <v>-0.345</v>
+        <v>-0.37</v>
       </c>
       <c r="D97" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E97" s="4" t="inlineStr"/>
       <c r="G97" s="4" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H97" s="4" t="n">
         <v>0</v>
@@ -3045,20 +3153,20 @@
     </row>
     <row r="98">
       <c r="A98" s="4" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B98" s="5" t="n">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="C98" s="5" t="n">
-        <v>-0.35</v>
+        <v>-0.375</v>
       </c>
       <c r="D98" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E98" s="4" t="inlineStr"/>
       <c r="G98" s="4" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H98" s="4" t="n">
         <v>0</v>
@@ -3076,20 +3184,20 @@
     </row>
     <row r="99">
       <c r="A99" s="4" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B99" s="5" t="n">
-        <v>0.355</v>
+        <v>0.38</v>
       </c>
       <c r="C99" s="5" t="n">
-        <v>-0.355</v>
+        <v>-0.38</v>
       </c>
       <c r="D99" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E99" s="4" t="inlineStr"/>
       <c r="G99" s="4" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H99" s="4" t="n">
         <v>0</v>
@@ -3107,20 +3215,20 @@
     </row>
     <row r="100">
       <c r="A100" s="4" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B100" s="5" t="n">
-        <v>0.36</v>
+        <v>0.385</v>
       </c>
       <c r="C100" s="5" t="n">
-        <v>-0.36</v>
+        <v>-0.385</v>
       </c>
       <c r="D100" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E100" s="4" t="inlineStr"/>
       <c r="G100" s="4" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H100" s="4" t="n">
         <v>0</v>
@@ -3138,20 +3246,20 @@
     </row>
     <row r="101">
       <c r="A101" s="4" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B101" s="5" t="n">
-        <v>0.365</v>
+        <v>0.39</v>
       </c>
       <c r="C101" s="5" t="n">
-        <v>-0.365</v>
+        <v>-0.39</v>
       </c>
       <c r="D101" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E101" s="4" t="inlineStr"/>
       <c r="G101" s="4" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H101" s="4" t="n">
         <v>0</v>
@@ -3169,20 +3277,20 @@
     </row>
     <row r="102">
       <c r="A102" s="4" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B102" s="5" t="n">
-        <v>0.37</v>
+        <v>0.395</v>
       </c>
       <c r="C102" s="5" t="n">
-        <v>-0.37</v>
+        <v>-0.395</v>
       </c>
       <c r="D102" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E102" s="4" t="inlineStr"/>
       <c r="G102" s="4" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H102" s="4" t="n">
         <v>0</v>
@@ -3200,20 +3308,20 @@
     </row>
     <row r="103">
       <c r="A103" s="4" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B103" s="5" t="n">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="C103" s="5" t="n">
-        <v>-0.375</v>
+        <v>-0.4</v>
       </c>
       <c r="D103" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E103" s="4" t="inlineStr"/>
       <c r="G103" s="4" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H103" s="4" t="n">
         <v>0</v>
@@ -3231,20 +3339,20 @@
     </row>
     <row r="104">
       <c r="A104" s="4" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B104" s="5" t="n">
-        <v>0.38</v>
+        <v>0.405</v>
       </c>
       <c r="C104" s="5" t="n">
-        <v>-0.38</v>
+        <v>-0.405</v>
       </c>
       <c r="D104" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E104" s="4" t="inlineStr"/>
       <c r="G104" s="4" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H104" s="4" t="n">
         <v>0</v>
@@ -3262,20 +3370,20 @@
     </row>
     <row r="105">
       <c r="A105" s="4" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B105" s="5" t="n">
-        <v>0.385</v>
+        <v>0.41</v>
       </c>
       <c r="C105" s="5" t="n">
-        <v>-0.385</v>
+        <v>-0.41</v>
       </c>
       <c r="D105" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E105" s="4" t="inlineStr"/>
       <c r="G105" s="4" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H105" s="4" t="n">
         <v>0</v>
@@ -3293,20 +3401,20 @@
     </row>
     <row r="106">
       <c r="A106" s="4" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B106" s="5" t="n">
-        <v>0.39</v>
+        <v>0.415</v>
       </c>
       <c r="C106" s="5" t="n">
-        <v>-0.39</v>
+        <v>-0.415</v>
       </c>
       <c r="D106" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E106" s="4" t="inlineStr"/>
       <c r="G106" s="4" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H106" s="4" t="n">
         <v>0</v>
@@ -3324,20 +3432,20 @@
     </row>
     <row r="107">
       <c r="A107" s="4" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B107" s="5" t="n">
-        <v>0.395</v>
+        <v>0.42</v>
       </c>
       <c r="C107" s="5" t="n">
-        <v>-0.395</v>
+        <v>-0.42</v>
       </c>
       <c r="D107" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E107" s="4" t="inlineStr"/>
       <c r="G107" s="4" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H107" s="4" t="n">
         <v>0</v>
@@ -3355,20 +3463,20 @@
     </row>
     <row r="108">
       <c r="A108" s="4" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B108" s="5" t="n">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="C108" s="5" t="n">
-        <v>-0.4</v>
+        <v>-0.425</v>
       </c>
       <c r="D108" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E108" s="4" t="inlineStr"/>
       <c r="G108" s="4" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H108" s="4" t="n">
         <v>0</v>
@@ -3386,20 +3494,20 @@
     </row>
     <row r="109">
       <c r="A109" s="4" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B109" s="5" t="n">
-        <v>0.405</v>
+        <v>0.43</v>
       </c>
       <c r="C109" s="5" t="n">
-        <v>-0.405</v>
+        <v>-0.43</v>
       </c>
       <c r="D109" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E109" s="4" t="inlineStr"/>
       <c r="G109" s="4" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H109" s="4" t="n">
         <v>0</v>
@@ -3417,20 +3525,20 @@
     </row>
     <row r="110">
       <c r="A110" s="4" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B110" s="5" t="n">
-        <v>0.41</v>
+        <v>0.435</v>
       </c>
       <c r="C110" s="5" t="n">
-        <v>-0.41</v>
+        <v>-0.435</v>
       </c>
       <c r="D110" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E110" s="4" t="inlineStr"/>
       <c r="G110" s="4" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H110" s="4" t="n">
         <v>0</v>
@@ -3448,20 +3556,20 @@
     </row>
     <row r="111">
       <c r="A111" s="4" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B111" s="5" t="n">
-        <v>0.415</v>
+        <v>0.44</v>
       </c>
       <c r="C111" s="5" t="n">
-        <v>-0.415</v>
+        <v>-0.44</v>
       </c>
       <c r="D111" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E111" s="4" t="inlineStr"/>
       <c r="G111" s="4" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H111" s="4" t="n">
         <v>0</v>
@@ -3479,20 +3587,20 @@
     </row>
     <row r="112">
       <c r="A112" s="4" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B112" s="5" t="n">
-        <v>0.42</v>
+        <v>0.445</v>
       </c>
       <c r="C112" s="5" t="n">
-        <v>-0.42</v>
+        <v>-0.445</v>
       </c>
       <c r="D112" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E112" s="4" t="inlineStr"/>
       <c r="G112" s="4" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H112" s="4" t="n">
         <v>0</v>
@@ -3510,20 +3618,20 @@
     </row>
     <row r="113">
       <c r="A113" s="4" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B113" s="5" t="n">
-        <v>0.425</v>
+        <v>0.45</v>
       </c>
       <c r="C113" s="5" t="n">
-        <v>-0.425</v>
+        <v>-0.45</v>
       </c>
       <c r="D113" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E113" s="4" t="inlineStr"/>
       <c r="G113" s="4" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H113" s="4" t="n">
         <v>0</v>
@@ -3541,20 +3649,20 @@
     </row>
     <row r="114">
       <c r="A114" s="4" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B114" s="5" t="n">
-        <v>0.43</v>
+        <v>0.455</v>
       </c>
       <c r="C114" s="5" t="n">
-        <v>-0.43</v>
+        <v>-0.455</v>
       </c>
       <c r="D114" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E114" s="4" t="inlineStr"/>
       <c r="G114" s="4" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H114" s="4" t="n">
         <v>0</v>
@@ -3572,20 +3680,20 @@
     </row>
     <row r="115">
       <c r="A115" s="4" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B115" s="5" t="n">
-        <v>0.435</v>
+        <v>0.46</v>
       </c>
       <c r="C115" s="5" t="n">
-        <v>-0.435</v>
+        <v>-0.46</v>
       </c>
       <c r="D115" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E115" s="4" t="inlineStr"/>
       <c r="G115" s="4" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H115" s="4" t="n">
         <v>0</v>
@@ -3603,20 +3711,20 @@
     </row>
     <row r="116">
       <c r="A116" s="4" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B116" s="5" t="n">
-        <v>0.44</v>
+        <v>0.465</v>
       </c>
       <c r="C116" s="5" t="n">
-        <v>-0.44</v>
+        <v>-0.465</v>
       </c>
       <c r="D116" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E116" s="4" t="inlineStr"/>
       <c r="G116" s="4" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H116" s="4" t="n">
         <v>0</v>
@@ -3634,20 +3742,20 @@
     </row>
     <row r="117">
       <c r="A117" s="4" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B117" s="5" t="n">
-        <v>0.445</v>
+        <v>0.47</v>
       </c>
       <c r="C117" s="5" t="n">
-        <v>-0.445</v>
+        <v>-0.47</v>
       </c>
       <c r="D117" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E117" s="4" t="inlineStr"/>
       <c r="G117" s="4" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H117" s="4" t="n">
         <v>0</v>
@@ -3665,20 +3773,20 @@
     </row>
     <row r="118">
       <c r="A118" s="4" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B118" s="5" t="n">
-        <v>0.45</v>
+        <v>0.475</v>
       </c>
       <c r="C118" s="5" t="n">
-        <v>-0.45</v>
+        <v>-0.475</v>
       </c>
       <c r="D118" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E118" s="4" t="inlineStr"/>
       <c r="G118" s="4" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H118" s="4" t="n">
         <v>0</v>
@@ -3696,20 +3804,20 @@
     </row>
     <row r="119">
       <c r="A119" s="4" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B119" s="5" t="n">
-        <v>0.455</v>
+        <v>0.48</v>
       </c>
       <c r="C119" s="5" t="n">
-        <v>-0.455</v>
+        <v>-0.48</v>
       </c>
       <c r="D119" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E119" s="4" t="inlineStr"/>
       <c r="G119" s="4" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H119" s="4" t="n">
         <v>0</v>
@@ -3727,20 +3835,20 @@
     </row>
     <row r="120">
       <c r="A120" s="4" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B120" s="5" t="n">
-        <v>0.46</v>
+        <v>0.485</v>
       </c>
       <c r="C120" s="5" t="n">
-        <v>-0.46</v>
+        <v>-0.485</v>
       </c>
       <c r="D120" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E120" s="4" t="inlineStr"/>
       <c r="G120" s="4" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H120" s="4" t="n">
         <v>0</v>
@@ -3758,20 +3866,20 @@
     </row>
     <row r="121">
       <c r="A121" s="4" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B121" s="5" t="n">
-        <v>0.465</v>
+        <v>0.49</v>
       </c>
       <c r="C121" s="5" t="n">
-        <v>-0.465</v>
+        <v>-0.49</v>
       </c>
       <c r="D121" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E121" s="4" t="inlineStr"/>
       <c r="G121" s="4" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H121" s="4" t="n">
         <v>0</v>
@@ -3789,20 +3897,20 @@
     </row>
     <row r="122">
       <c r="A122" s="4" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B122" s="5" t="n">
-        <v>0.47</v>
+        <v>0.495</v>
       </c>
       <c r="C122" s="5" t="n">
-        <v>-0.47</v>
+        <v>-0.495</v>
       </c>
       <c r="D122" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E122" s="4" t="inlineStr"/>
       <c r="G122" s="4" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H122" s="4" t="n">
         <v>0</v>
@@ -3820,20 +3928,20 @@
     </row>
     <row r="123">
       <c r="A123" s="4" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B123" s="5" t="n">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
       <c r="C123" s="5" t="n">
-        <v>-0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="D123" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E123" s="4" t="inlineStr"/>
       <c r="G123" s="4" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H123" s="4" t="n">
         <v>0</v>
@@ -3851,20 +3959,20 @@
     </row>
     <row r="124">
       <c r="A124" s="4" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B124" s="5" t="n">
-        <v>0.48</v>
+        <v>0.505</v>
       </c>
       <c r="C124" s="5" t="n">
-        <v>-0.48</v>
+        <v>-0.505</v>
       </c>
       <c r="D124" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E124" s="4" t="inlineStr"/>
       <c r="G124" s="4" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H124" s="4" t="n">
         <v>0</v>
@@ -3882,20 +3990,20 @@
     </row>
     <row r="125">
       <c r="A125" s="4" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B125" s="5" t="n">
-        <v>0.485</v>
+        <v>0.51</v>
       </c>
       <c r="C125" s="5" t="n">
-        <v>-0.485</v>
+        <v>-0.51</v>
       </c>
       <c r="D125" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E125" s="4" t="inlineStr"/>
       <c r="G125" s="4" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H125" s="4" t="n">
         <v>0</v>
@@ -3913,20 +4021,20 @@
     </row>
     <row r="126">
       <c r="A126" s="4" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B126" s="5" t="n">
-        <v>0.49</v>
+        <v>0.515</v>
       </c>
       <c r="C126" s="5" t="n">
-        <v>-0.49</v>
+        <v>-0.515</v>
       </c>
       <c r="D126" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E126" s="4" t="inlineStr"/>
       <c r="G126" s="4" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H126" s="4" t="n">
         <v>0</v>
@@ -3944,20 +4052,20 @@
     </row>
     <row r="127">
       <c r="A127" s="4" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B127" s="5" t="n">
-        <v>0.495</v>
+        <v>0.52</v>
       </c>
       <c r="C127" s="5" t="n">
-        <v>-0.495</v>
+        <v>-0.52</v>
       </c>
       <c r="D127" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E127" s="4" t="inlineStr"/>
       <c r="G127" s="4" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H127" s="4" t="n">
         <v>0</v>
@@ -3975,20 +4083,20 @@
     </row>
     <row r="128">
       <c r="A128" s="4" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B128" s="5" t="n">
-        <v>0.5</v>
+        <v>0.525</v>
       </c>
       <c r="C128" s="5" t="n">
-        <v>-0.5</v>
+        <v>-0.525</v>
       </c>
       <c r="D128" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E128" s="4" t="inlineStr"/>
       <c r="G128" s="4" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H128" s="4" t="n">
         <v>0</v>
@@ -4006,20 +4114,20 @@
     </row>
     <row r="129">
       <c r="A129" s="4" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B129" s="5" t="n">
-        <v>0.505</v>
+        <v>0.53</v>
       </c>
       <c r="C129" s="5" t="n">
-        <v>-0.505</v>
+        <v>-0.53</v>
       </c>
       <c r="D129" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E129" s="4" t="inlineStr"/>
       <c r="G129" s="4" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H129" s="4" t="n">
         <v>0</v>
@@ -4037,20 +4145,20 @@
     </row>
     <row r="130">
       <c r="A130" s="4" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B130" s="5" t="n">
-        <v>0.51</v>
+        <v>0.535</v>
       </c>
       <c r="C130" s="5" t="n">
-        <v>-0.51</v>
+        <v>-0.535</v>
       </c>
       <c r="D130" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E130" s="4" t="inlineStr"/>
       <c r="G130" s="4" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H130" s="4" t="n">
         <v>0</v>
@@ -4068,20 +4176,20 @@
     </row>
     <row r="131">
       <c r="A131" s="4" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B131" s="5" t="n">
-        <v>0.515</v>
+        <v>0.54</v>
       </c>
       <c r="C131" s="5" t="n">
-        <v>-0.515</v>
+        <v>-0.54</v>
       </c>
       <c r="D131" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E131" s="4" t="inlineStr"/>
       <c r="G131" s="4" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H131" s="4" t="n">
         <v>0</v>
@@ -4099,20 +4207,20 @@
     </row>
     <row r="132">
       <c r="A132" s="4" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B132" s="5" t="n">
-        <v>0.52</v>
+        <v>0.545</v>
       </c>
       <c r="C132" s="5" t="n">
-        <v>-0.52</v>
+        <v>-0.545</v>
       </c>
       <c r="D132" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E132" s="4" t="inlineStr"/>
       <c r="G132" s="4" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H132" s="4" t="n">
         <v>0</v>
@@ -4130,20 +4238,20 @@
     </row>
     <row r="133">
       <c r="A133" s="4" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B133" s="5" t="n">
-        <v>0.525</v>
+        <v>0.55</v>
       </c>
       <c r="C133" s="5" t="n">
-        <v>-0.525</v>
+        <v>-0.55</v>
       </c>
       <c r="D133" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E133" s="4" t="inlineStr"/>
       <c r="G133" s="4" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H133" s="4" t="n">
         <v>0</v>
@@ -4161,20 +4269,20 @@
     </row>
     <row r="134">
       <c r="A134" s="4" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B134" s="5" t="n">
-        <v>0.53</v>
+        <v>0.555</v>
       </c>
       <c r="C134" s="5" t="n">
-        <v>-0.53</v>
+        <v>-0.555</v>
       </c>
       <c r="D134" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E134" s="4" t="inlineStr"/>
       <c r="G134" s="4" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H134" s="4" t="n">
         <v>0</v>
@@ -4192,20 +4300,20 @@
     </row>
     <row r="135">
       <c r="A135" s="4" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B135" s="5" t="n">
-        <v>0.535</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C135" s="5" t="n">
-        <v>-0.535</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="D135" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E135" s="4" t="inlineStr"/>
       <c r="G135" s="4" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H135" s="4" t="n">
         <v>0</v>
@@ -4223,20 +4331,20 @@
     </row>
     <row r="136">
       <c r="A136" s="4" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B136" s="5" t="n">
-        <v>0.54</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="C136" s="5" t="n">
-        <v>-0.54</v>
+        <v>-0.5649999999999999</v>
       </c>
       <c r="D136" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E136" s="4" t="inlineStr"/>
       <c r="G136" s="4" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H136" s="4" t="n">
         <v>0</v>
@@ -4254,20 +4362,20 @@
     </row>
     <row r="137">
       <c r="A137" s="4" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B137" s="5" t="n">
-        <v>0.545</v>
+        <v>0.57</v>
       </c>
       <c r="C137" s="5" t="n">
-        <v>-0.545</v>
+        <v>-0.57</v>
       </c>
       <c r="D137" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E137" s="4" t="inlineStr"/>
       <c r="G137" s="4" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H137" s="4" t="n">
         <v>0</v>
@@ -4285,20 +4393,20 @@
     </row>
     <row r="138">
       <c r="A138" s="4" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B138" s="5" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="C138" s="5" t="n">
-        <v>-0.55</v>
+        <v>-0.575</v>
       </c>
       <c r="D138" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E138" s="4" t="inlineStr"/>
       <c r="G138" s="4" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H138" s="4" t="n">
         <v>0</v>
@@ -4316,20 +4424,20 @@
     </row>
     <row r="139">
       <c r="A139" s="4" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B139" s="5" t="n">
-        <v>0.555</v>
+        <v>0.58</v>
       </c>
       <c r="C139" s="5" t="n">
-        <v>-0.555</v>
+        <v>-0.58</v>
       </c>
       <c r="D139" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E139" s="4" t="inlineStr"/>
       <c r="G139" s="4" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H139" s="4" t="n">
         <v>0</v>
@@ -4347,20 +4455,20 @@
     </row>
     <row r="140">
       <c r="A140" s="4" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B140" s="5" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.585</v>
       </c>
       <c r="C140" s="5" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.585</v>
       </c>
       <c r="D140" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E140" s="4" t="inlineStr"/>
       <c r="G140" s="4" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H140" s="4" t="n">
         <v>0</v>
@@ -4378,20 +4486,20 @@
     </row>
     <row r="141">
       <c r="A141" s="4" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B141" s="5" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="C141" s="5" t="n">
-        <v>-0.5649999999999999</v>
+        <v>-0.59</v>
       </c>
       <c r="D141" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E141" s="4" t="inlineStr"/>
       <c r="G141" s="4" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H141" s="4" t="n">
         <v>0</v>
@@ -4409,20 +4517,20 @@
     </row>
     <row r="142">
       <c r="A142" s="4" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B142" s="5" t="n">
-        <v>0.57</v>
+        <v>0.595</v>
       </c>
       <c r="C142" s="5" t="n">
-        <v>-0.57</v>
+        <v>-0.595</v>
       </c>
       <c r="D142" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E142" s="4" t="inlineStr"/>
       <c r="G142" s="4" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H142" s="4" t="n">
         <v>0</v>
@@ -4440,20 +4548,20 @@
     </row>
     <row r="143">
       <c r="A143" s="4" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B143" s="5" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="C143" s="5" t="n">
-        <v>-0.575</v>
+        <v>-0.6</v>
       </c>
       <c r="D143" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E143" s="4" t="inlineStr"/>
       <c r="G143" s="4" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H143" s="4" t="n">
         <v>0</v>
@@ -4471,20 +4579,20 @@
     </row>
     <row r="144">
       <c r="A144" s="4" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B144" s="5" t="n">
-        <v>0.58</v>
+        <v>0.605</v>
       </c>
       <c r="C144" s="5" t="n">
-        <v>-0.58</v>
+        <v>-0.605</v>
       </c>
       <c r="D144" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E144" s="4" t="inlineStr"/>
       <c r="G144" s="4" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H144" s="4" t="n">
         <v>0</v>
@@ -4502,20 +4610,20 @@
     </row>
     <row r="145">
       <c r="A145" s="4" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B145" s="5" t="n">
-        <v>0.585</v>
+        <v>0.61</v>
       </c>
       <c r="C145" s="5" t="n">
-        <v>-0.585</v>
+        <v>-0.61</v>
       </c>
       <c r="D145" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E145" s="4" t="inlineStr"/>
       <c r="G145" s="4" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H145" s="4" t="n">
         <v>0</v>
@@ -4533,20 +4641,20 @@
     </row>
     <row r="146">
       <c r="A146" s="4" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B146" s="5" t="n">
-        <v>0.59</v>
+        <v>0.615</v>
       </c>
       <c r="C146" s="5" t="n">
-        <v>-0.59</v>
+        <v>-0.615</v>
       </c>
       <c r="D146" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E146" s="4" t="inlineStr"/>
       <c r="G146" s="4" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H146" s="4" t="n">
         <v>0</v>
@@ -4564,20 +4672,20 @@
     </row>
     <row r="147">
       <c r="A147" s="4" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B147" s="5" t="n">
-        <v>0.595</v>
+        <v>0.62</v>
       </c>
       <c r="C147" s="5" t="n">
-        <v>-0.595</v>
+        <v>-0.62</v>
       </c>
       <c r="D147" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E147" s="4" t="inlineStr"/>
       <c r="G147" s="4" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H147" s="4" t="n">
         <v>0</v>
@@ -4595,20 +4703,20 @@
     </row>
     <row r="148">
       <c r="A148" s="4" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B148" s="5" t="n">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="C148" s="5" t="n">
-        <v>-0.6</v>
+        <v>-0.625</v>
       </c>
       <c r="D148" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E148" s="4" t="inlineStr"/>
       <c r="G148" s="4" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H148" s="4" t="n">
         <v>0</v>
@@ -4626,20 +4734,20 @@
     </row>
     <row r="149">
       <c r="A149" s="4" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B149" s="5" t="n">
-        <v>0.605</v>
+        <v>0.63</v>
       </c>
       <c r="C149" s="5" t="n">
-        <v>-0.605</v>
+        <v>-0.63</v>
       </c>
       <c r="D149" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E149" s="4" t="inlineStr"/>
       <c r="G149" s="4" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H149" s="4" t="n">
         <v>0</v>
@@ -4657,20 +4765,20 @@
     </row>
     <row r="150">
       <c r="A150" s="4" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B150" s="5" t="n">
-        <v>0.61</v>
+        <v>0.635</v>
       </c>
       <c r="C150" s="5" t="n">
-        <v>-0.61</v>
+        <v>-0.635</v>
       </c>
       <c r="D150" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E150" s="4" t="inlineStr"/>
       <c r="G150" s="4" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H150" s="4" t="n">
         <v>0</v>
@@ -4688,20 +4796,20 @@
     </row>
     <row r="151">
       <c r="A151" s="4" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B151" s="5" t="n">
-        <v>0.615</v>
+        <v>0.64</v>
       </c>
       <c r="C151" s="5" t="n">
-        <v>-0.615</v>
+        <v>-0.64</v>
       </c>
       <c r="D151" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E151" s="4" t="inlineStr"/>
       <c r="G151" s="4" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H151" s="4" t="n">
         <v>0</v>
@@ -4719,20 +4827,20 @@
     </row>
     <row r="152">
       <c r="A152" s="4" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B152" s="5" t="n">
-        <v>0.62</v>
+        <v>0.645</v>
       </c>
       <c r="C152" s="5" t="n">
-        <v>-0.62</v>
+        <v>-0.645</v>
       </c>
       <c r="D152" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E152" s="4" t="inlineStr"/>
       <c r="G152" s="4" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H152" s="4" t="n">
         <v>0</v>
@@ -4750,20 +4858,20 @@
     </row>
     <row r="153">
       <c r="A153" s="4" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B153" s="5" t="n">
-        <v>0.625</v>
+        <v>0.65</v>
       </c>
       <c r="C153" s="5" t="n">
-        <v>-0.625</v>
+        <v>-0.65</v>
       </c>
       <c r="D153" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E153" s="4" t="inlineStr"/>
       <c r="G153" s="4" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H153" s="4" t="n">
         <v>0</v>
@@ -4781,20 +4889,20 @@
     </row>
     <row r="154">
       <c r="A154" s="4" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B154" s="5" t="n">
-        <v>0.63</v>
+        <v>0.655</v>
       </c>
       <c r="C154" s="5" t="n">
-        <v>-0.63</v>
+        <v>-0.655</v>
       </c>
       <c r="D154" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E154" s="4" t="inlineStr"/>
       <c r="G154" s="4" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H154" s="4" t="n">
         <v>0</v>
@@ -4812,20 +4920,20 @@
     </row>
     <row r="155">
       <c r="A155" s="4" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B155" s="5" t="n">
-        <v>0.635</v>
+        <v>0.66</v>
       </c>
       <c r="C155" s="5" t="n">
-        <v>-0.635</v>
+        <v>-0.66</v>
       </c>
       <c r="D155" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E155" s="4" t="inlineStr"/>
       <c r="G155" s="4" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H155" s="4" t="n">
         <v>0</v>
@@ -4843,20 +4951,20 @@
     </row>
     <row r="156">
       <c r="A156" s="4" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B156" s="5" t="n">
-        <v>0.64</v>
+        <v>0.665</v>
       </c>
       <c r="C156" s="5" t="n">
-        <v>-0.64</v>
+        <v>-0.665</v>
       </c>
       <c r="D156" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E156" s="4" t="inlineStr"/>
       <c r="G156" s="4" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H156" s="4" t="n">
         <v>0</v>
@@ -4874,20 +4982,20 @@
     </row>
     <row r="157">
       <c r="A157" s="4" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B157" s="5" t="n">
-        <v>0.645</v>
+        <v>0.67</v>
       </c>
       <c r="C157" s="5" t="n">
-        <v>-0.645</v>
+        <v>-0.67</v>
       </c>
       <c r="D157" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E157" s="4" t="inlineStr"/>
       <c r="G157" s="4" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H157" s="4" t="n">
         <v>0</v>
@@ -4905,20 +5013,20 @@
     </row>
     <row r="158">
       <c r="A158" s="4" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B158" s="5" t="n">
-        <v>0.65</v>
+        <v>0.675</v>
       </c>
       <c r="C158" s="5" t="n">
-        <v>-0.65</v>
+        <v>-0.675</v>
       </c>
       <c r="D158" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E158" s="4" t="inlineStr"/>
       <c r="G158" s="4" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H158" s="4" t="n">
         <v>0</v>
@@ -4936,20 +5044,20 @@
     </row>
     <row r="159">
       <c r="A159" s="4" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B159" s="5" t="n">
-        <v>0.655</v>
+        <v>0.68</v>
       </c>
       <c r="C159" s="5" t="n">
-        <v>-0.655</v>
+        <v>-0.68</v>
       </c>
       <c r="D159" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E159" s="4" t="inlineStr"/>
       <c r="G159" s="4" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H159" s="4" t="n">
         <v>0</v>
@@ -4967,20 +5075,20 @@
     </row>
     <row r="160">
       <c r="A160" s="4" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B160" s="5" t="n">
-        <v>0.66</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="C160" s="5" t="n">
-        <v>-0.66</v>
+        <v>-0.6850000000000001</v>
       </c>
       <c r="D160" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E160" s="4" t="inlineStr"/>
       <c r="G160" s="4" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H160" s="4" t="n">
         <v>0</v>
@@ -4998,20 +5106,20 @@
     </row>
     <row r="161">
       <c r="A161" s="4" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B161" s="5" t="n">
-        <v>0.665</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C161" s="5" t="n">
-        <v>-0.665</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="D161" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E161" s="4" t="inlineStr"/>
       <c r="G161" s="4" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H161" s="4" t="n">
         <v>0</v>
@@ -5029,20 +5137,20 @@
     </row>
     <row r="162">
       <c r="A162" s="4" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B162" s="5" t="n">
-        <v>0.67</v>
+        <v>0.695</v>
       </c>
       <c r="C162" s="5" t="n">
-        <v>-0.67</v>
+        <v>-0.695</v>
       </c>
       <c r="D162" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E162" s="4" t="inlineStr"/>
       <c r="G162" s="4" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H162" s="4" t="n">
         <v>0</v>
@@ -5060,20 +5168,20 @@
     </row>
     <row r="163">
       <c r="A163" s="4" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B163" s="5" t="n">
-        <v>0.675</v>
+        <v>0.7</v>
       </c>
       <c r="C163" s="5" t="n">
-        <v>-0.675</v>
+        <v>-0.7</v>
       </c>
       <c r="D163" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E163" s="4" t="inlineStr"/>
       <c r="G163" s="4" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H163" s="4" t="n">
         <v>0</v>
@@ -5091,20 +5199,20 @@
     </row>
     <row r="164">
       <c r="A164" s="4" t="n">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B164" s="5" t="n">
-        <v>0.68</v>
+        <v>0.705</v>
       </c>
       <c r="C164" s="5" t="n">
-        <v>-0.68</v>
+        <v>-0.705</v>
       </c>
       <c r="D164" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E164" s="4" t="inlineStr"/>
       <c r="G164" s="4" t="n">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H164" s="4" t="n">
         <v>0</v>
@@ -5122,20 +5230,20 @@
     </row>
     <row r="165">
       <c r="A165" s="4" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B165" s="5" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="C165" s="5" t="n">
-        <v>-0.6850000000000001</v>
+        <v>-0.71</v>
       </c>
       <c r="D165" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E165" s="4" t="inlineStr"/>
       <c r="G165" s="4" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H165" s="4" t="n">
         <v>0</v>
@@ -5153,20 +5261,20 @@
     </row>
     <row r="166">
       <c r="A166" s="4" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B166" s="5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.715</v>
       </c>
       <c r="C166" s="5" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.715</v>
       </c>
       <c r="D166" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E166" s="4" t="inlineStr"/>
       <c r="G166" s="4" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H166" s="4" t="n">
         <v>0</v>
@@ -5184,20 +5292,20 @@
     </row>
     <row r="167">
       <c r="A167" s="4" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B167" s="5" t="n">
-        <v>0.695</v>
+        <v>0.72</v>
       </c>
       <c r="C167" s="5" t="n">
-        <v>-0.695</v>
+        <v>-0.72</v>
       </c>
       <c r="D167" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E167" s="4" t="inlineStr"/>
       <c r="G167" s="4" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H167" s="4" t="n">
         <v>0</v>
@@ -5215,20 +5323,20 @@
     </row>
     <row r="168">
       <c r="A168" s="4" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B168" s="5" t="n">
-        <v>0.7</v>
+        <v>0.725</v>
       </c>
       <c r="C168" s="5" t="n">
-        <v>-0.7</v>
+        <v>-0.725</v>
       </c>
       <c r="D168" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E168" s="4" t="inlineStr"/>
       <c r="G168" s="4" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H168" s="4" t="n">
         <v>0</v>
@@ -5246,20 +5354,20 @@
     </row>
     <row r="169">
       <c r="A169" s="4" t="n">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B169" s="5" t="n">
-        <v>0.705</v>
+        <v>0.73</v>
       </c>
       <c r="C169" s="5" t="n">
-        <v>-0.705</v>
+        <v>-0.73</v>
       </c>
       <c r="D169" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E169" s="4" t="inlineStr"/>
       <c r="G169" s="4" t="n">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H169" s="4" t="n">
         <v>0</v>
@@ -5277,20 +5385,20 @@
     </row>
     <row r="170">
       <c r="A170" s="4" t="n">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B170" s="5" t="n">
-        <v>0.71</v>
+        <v>0.735</v>
       </c>
       <c r="C170" s="5" t="n">
-        <v>-0.71</v>
+        <v>-0.735</v>
       </c>
       <c r="D170" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E170" s="4" t="inlineStr"/>
       <c r="G170" s="4" t="n">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H170" s="4" t="n">
         <v>0</v>
@@ -5308,20 +5416,20 @@
     </row>
     <row r="171">
       <c r="A171" s="4" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B171" s="5" t="n">
-        <v>0.715</v>
+        <v>0.74</v>
       </c>
       <c r="C171" s="5" t="n">
-        <v>-0.715</v>
+        <v>-0.74</v>
       </c>
       <c r="D171" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E171" s="4" t="inlineStr"/>
       <c r="G171" s="4" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H171" s="4" t="n">
         <v>0</v>
@@ -5339,20 +5447,20 @@
     </row>
     <row r="172">
       <c r="A172" s="4" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B172" s="5" t="n">
-        <v>0.72</v>
+        <v>0.745</v>
       </c>
       <c r="C172" s="5" t="n">
-        <v>-0.72</v>
+        <v>-0.745</v>
       </c>
       <c r="D172" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E172" s="4" t="inlineStr"/>
       <c r="G172" s="4" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H172" s="4" t="n">
         <v>0</v>
@@ -5370,20 +5478,20 @@
     </row>
     <row r="173">
       <c r="A173" s="4" t="n">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B173" s="5" t="n">
-        <v>0.725</v>
+        <v>0.75</v>
       </c>
       <c r="C173" s="5" t="n">
-        <v>-0.725</v>
+        <v>-0.75</v>
       </c>
       <c r="D173" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E173" s="4" t="inlineStr"/>
       <c r="G173" s="4" t="n">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H173" s="4" t="n">
         <v>0</v>
@@ -5401,20 +5509,20 @@
     </row>
     <row r="174">
       <c r="A174" s="4" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B174" s="5" t="n">
-        <v>0.73</v>
+        <v>0.755</v>
       </c>
       <c r="C174" s="5" t="n">
-        <v>-0.73</v>
+        <v>-0.755</v>
       </c>
       <c r="D174" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E174" s="4" t="inlineStr"/>
       <c r="G174" s="4" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H174" s="4" t="n">
         <v>0</v>
@@ -5432,20 +5540,20 @@
     </row>
     <row r="175">
       <c r="A175" s="4" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B175" s="5" t="n">
-        <v>0.735</v>
+        <v>0.76</v>
       </c>
       <c r="C175" s="5" t="n">
-        <v>-0.735</v>
+        <v>-0.76</v>
       </c>
       <c r="D175" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E175" s="4" t="inlineStr"/>
       <c r="G175" s="4" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H175" s="4" t="n">
         <v>0</v>
@@ -5463,20 +5571,20 @@
     </row>
     <row r="176">
       <c r="A176" s="4" t="n">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B176" s="5" t="n">
-        <v>0.74</v>
+        <v>0.765</v>
       </c>
       <c r="C176" s="5" t="n">
-        <v>-0.74</v>
+        <v>-0.765</v>
       </c>
       <c r="D176" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E176" s="4" t="inlineStr"/>
       <c r="G176" s="4" t="n">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H176" s="4" t="n">
         <v>0</v>
@@ -5494,20 +5602,20 @@
     </row>
     <row r="177">
       <c r="A177" s="4" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B177" s="5" t="n">
-        <v>0.745</v>
+        <v>0.77</v>
       </c>
       <c r="C177" s="5" t="n">
-        <v>-0.745</v>
+        <v>-0.77</v>
       </c>
       <c r="D177" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E177" s="4" t="inlineStr"/>
       <c r="G177" s="4" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H177" s="4" t="n">
         <v>0</v>
@@ -5525,20 +5633,20 @@
     </row>
     <row r="178">
       <c r="A178" s="4" t="n">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B178" s="5" t="n">
-        <v>0.75</v>
+        <v>0.775</v>
       </c>
       <c r="C178" s="5" t="n">
-        <v>-0.75</v>
+        <v>-0.775</v>
       </c>
       <c r="D178" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E178" s="4" t="inlineStr"/>
       <c r="G178" s="4" t="n">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H178" s="4" t="n">
         <v>0</v>
@@ -5556,20 +5664,20 @@
     </row>
     <row r="179">
       <c r="A179" s="4" t="n">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B179" s="5" t="n">
-        <v>0.755</v>
+        <v>0.78</v>
       </c>
       <c r="C179" s="5" t="n">
-        <v>-0.755</v>
+        <v>-0.78</v>
       </c>
       <c r="D179" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E179" s="4" t="inlineStr"/>
       <c r="G179" s="4" t="n">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H179" s="4" t="n">
         <v>0</v>
@@ -5587,20 +5695,20 @@
     </row>
     <row r="180">
       <c r="A180" s="4" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B180" s="5" t="n">
-        <v>0.76</v>
+        <v>0.785</v>
       </c>
       <c r="C180" s="5" t="n">
-        <v>-0.76</v>
+        <v>-0.785</v>
       </c>
       <c r="D180" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E180" s="4" t="inlineStr"/>
       <c r="G180" s="4" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H180" s="4" t="n">
         <v>0</v>
@@ -5618,20 +5726,20 @@
     </row>
     <row r="181">
       <c r="A181" s="4" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B181" s="5" t="n">
-        <v>0.765</v>
+        <v>0.79</v>
       </c>
       <c r="C181" s="5" t="n">
-        <v>-0.765</v>
+        <v>-0.79</v>
       </c>
       <c r="D181" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E181" s="4" t="inlineStr"/>
       <c r="G181" s="4" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H181" s="4" t="n">
         <v>0</v>
@@ -5649,20 +5757,20 @@
     </row>
     <row r="182">
       <c r="A182" s="4" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B182" s="5" t="n">
-        <v>0.77</v>
+        <v>0.795</v>
       </c>
       <c r="C182" s="5" t="n">
-        <v>-0.77</v>
+        <v>-0.795</v>
       </c>
       <c r="D182" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E182" s="4" t="inlineStr"/>
       <c r="G182" s="4" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H182" s="4" t="n">
         <v>0</v>
@@ -5680,20 +5788,20 @@
     </row>
     <row r="183">
       <c r="A183" s="4" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B183" s="5" t="n">
-        <v>0.775</v>
+        <v>0.8</v>
       </c>
       <c r="C183" s="5" t="n">
-        <v>-0.775</v>
+        <v>-0.8</v>
       </c>
       <c r="D183" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E183" s="4" t="inlineStr"/>
       <c r="G183" s="4" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H183" s="4" t="n">
         <v>0</v>
@@ -5711,20 +5819,20 @@
     </row>
     <row r="184">
       <c r="A184" s="4" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B184" s="5" t="n">
-        <v>0.78</v>
+        <v>0.805</v>
       </c>
       <c r="C184" s="5" t="n">
-        <v>-0.78</v>
+        <v>-0.805</v>
       </c>
       <c r="D184" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E184" s="4" t="inlineStr"/>
       <c r="G184" s="4" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H184" s="4" t="n">
         <v>0</v>
@@ -5742,20 +5850,20 @@
     </row>
     <row r="185">
       <c r="A185" s="4" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B185" s="5" t="n">
-        <v>0.785</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C185" s="5" t="n">
-        <v>-0.785</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="D185" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E185" s="4" t="inlineStr"/>
       <c r="G185" s="4" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H185" s="4" t="n">
         <v>0</v>
@@ -5773,20 +5881,20 @@
     </row>
     <row r="186">
       <c r="A186" s="4" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B186" s="5" t="n">
-        <v>0.79</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="C186" s="5" t="n">
-        <v>-0.79</v>
+        <v>-0.8149999999999999</v>
       </c>
       <c r="D186" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E186" s="4" t="inlineStr"/>
       <c r="G186" s="4" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H186" s="4" t="n">
         <v>0</v>
@@ -5804,20 +5912,20 @@
     </row>
     <row r="187">
       <c r="A187" s="4" t="n">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B187" s="5" t="n">
-        <v>0.795</v>
+        <v>0.82</v>
       </c>
       <c r="C187" s="5" t="n">
-        <v>-0.795</v>
+        <v>-0.82</v>
       </c>
       <c r="D187" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E187" s="4" t="inlineStr"/>
       <c r="G187" s="4" t="n">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H187" s="4" t="n">
         <v>0</v>
@@ -5835,20 +5943,20 @@
     </row>
     <row r="188">
       <c r="A188" s="4" t="n">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B188" s="5" t="n">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="C188" s="5" t="n">
-        <v>-0.8</v>
+        <v>-0.825</v>
       </c>
       <c r="D188" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E188" s="4" t="inlineStr"/>
       <c r="G188" s="4" t="n">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H188" s="4" t="n">
         <v>0</v>
@@ -5866,20 +5974,20 @@
     </row>
     <row r="189">
       <c r="A189" s="4" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B189" s="5" t="n">
-        <v>0.805</v>
+        <v>0.83</v>
       </c>
       <c r="C189" s="5" t="n">
-        <v>-0.805</v>
+        <v>-0.83</v>
       </c>
       <c r="D189" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E189" s="4" t="inlineStr"/>
       <c r="G189" s="4" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H189" s="4" t="n">
         <v>0</v>
@@ -5897,20 +6005,20 @@
     </row>
     <row r="190">
       <c r="A190" s="4" t="n">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B190" s="5" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.835</v>
       </c>
       <c r="C190" s="5" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.835</v>
       </c>
       <c r="D190" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E190" s="4" t="inlineStr"/>
       <c r="G190" s="4" t="n">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H190" s="4" t="n">
         <v>0</v>
@@ -5928,20 +6036,20 @@
     </row>
     <row r="191">
       <c r="A191" s="4" t="n">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B191" s="5" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="C191" s="5" t="n">
-        <v>-0.8149999999999999</v>
+        <v>-0.84</v>
       </c>
       <c r="D191" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E191" s="4" t="inlineStr"/>
       <c r="G191" s="4" t="n">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H191" s="4" t="n">
         <v>0</v>
@@ -5959,20 +6067,20 @@
     </row>
     <row r="192">
       <c r="A192" s="4" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B192" s="5" t="n">
-        <v>0.82</v>
+        <v>0.845</v>
       </c>
       <c r="C192" s="5" t="n">
-        <v>-0.82</v>
+        <v>-0.845</v>
       </c>
       <c r="D192" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E192" s="4" t="inlineStr"/>
       <c r="G192" s="4" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H192" s="4" t="n">
         <v>0</v>
@@ -5990,20 +6098,20 @@
     </row>
     <row r="193">
       <c r="A193" s="4" t="n">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B193" s="5" t="n">
-        <v>0.825</v>
+        <v>0.85</v>
       </c>
       <c r="C193" s="5" t="n">
-        <v>-0.825</v>
+        <v>-0.85</v>
       </c>
       <c r="D193" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E193" s="4" t="inlineStr"/>
       <c r="G193" s="4" t="n">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H193" s="4" t="n">
         <v>0</v>
@@ -6021,20 +6129,20 @@
     </row>
     <row r="194">
       <c r="A194" s="4" t="n">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B194" s="5" t="n">
-        <v>0.83</v>
+        <v>0.855</v>
       </c>
       <c r="C194" s="5" t="n">
-        <v>-0.83</v>
+        <v>-0.855</v>
       </c>
       <c r="D194" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E194" s="4" t="inlineStr"/>
       <c r="G194" s="4" t="n">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H194" s="4" t="n">
         <v>0</v>
@@ -6052,20 +6160,20 @@
     </row>
     <row r="195">
       <c r="A195" s="4" t="n">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B195" s="5" t="n">
-        <v>0.835</v>
+        <v>0.86</v>
       </c>
       <c r="C195" s="5" t="n">
-        <v>-0.835</v>
+        <v>-0.86</v>
       </c>
       <c r="D195" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E195" s="4" t="inlineStr"/>
       <c r="G195" s="4" t="n">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H195" s="4" t="n">
         <v>0</v>
@@ -6083,20 +6191,20 @@
     </row>
     <row r="196">
       <c r="A196" s="4" t="n">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B196" s="5" t="n">
-        <v>0.84</v>
+        <v>0.865</v>
       </c>
       <c r="C196" s="5" t="n">
-        <v>-0.84</v>
+        <v>-0.865</v>
       </c>
       <c r="D196" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E196" s="4" t="inlineStr"/>
       <c r="G196" s="4" t="n">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H196" s="4" t="n">
         <v>0</v>
@@ -6114,20 +6222,20 @@
     </row>
     <row r="197">
       <c r="A197" s="4" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B197" s="5" t="n">
-        <v>0.845</v>
+        <v>0.87</v>
       </c>
       <c r="C197" s="5" t="n">
-        <v>-0.845</v>
+        <v>-0.87</v>
       </c>
       <c r="D197" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E197" s="4" t="inlineStr"/>
       <c r="G197" s="4" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H197" s="4" t="n">
         <v>0</v>
@@ -6145,20 +6253,20 @@
     </row>
     <row r="198">
       <c r="A198" s="4" t="n">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B198" s="5" t="n">
-        <v>0.85</v>
+        <v>0.875</v>
       </c>
       <c r="C198" s="5" t="n">
-        <v>-0.85</v>
+        <v>-0.875</v>
       </c>
       <c r="D198" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E198" s="4" t="inlineStr"/>
       <c r="G198" s="4" t="n">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H198" s="4" t="n">
         <v>0</v>
@@ -6176,20 +6284,20 @@
     </row>
     <row r="199">
       <c r="A199" s="4" t="n">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B199" s="5" t="n">
-        <v>0.855</v>
+        <v>0.88</v>
       </c>
       <c r="C199" s="5" t="n">
-        <v>-0.855</v>
+        <v>-0.88</v>
       </c>
       <c r="D199" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E199" s="4" t="inlineStr"/>
       <c r="G199" s="4" t="n">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H199" s="4" t="n">
         <v>0</v>
@@ -6207,20 +6315,20 @@
     </row>
     <row r="200">
       <c r="A200" s="4" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B200" s="5" t="n">
-        <v>0.86</v>
+        <v>0.885</v>
       </c>
       <c r="C200" s="5" t="n">
-        <v>-0.86</v>
+        <v>-0.885</v>
       </c>
       <c r="D200" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E200" s="4" t="inlineStr"/>
       <c r="G200" s="4" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H200" s="4" t="n">
         <v>0</v>
@@ -6238,20 +6346,20 @@
     </row>
     <row r="201">
       <c r="A201" s="4" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B201" s="5" t="n">
-        <v>0.865</v>
+        <v>0.89</v>
       </c>
       <c r="C201" s="5" t="n">
-        <v>-0.865</v>
+        <v>-0.89</v>
       </c>
       <c r="D201" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E201" s="4" t="inlineStr"/>
       <c r="G201" s="4" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H201" s="4" t="n">
         <v>0</v>
@@ -6269,20 +6377,20 @@
     </row>
     <row r="202">
       <c r="A202" s="4" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B202" s="5" t="n">
-        <v>0.87</v>
+        <v>0.895</v>
       </c>
       <c r="C202" s="5" t="n">
-        <v>-0.87</v>
+        <v>-0.895</v>
       </c>
       <c r="D202" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E202" s="4" t="inlineStr"/>
       <c r="G202" s="4" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H202" s="4" t="n">
         <v>0</v>
@@ -6300,20 +6408,20 @@
     </row>
     <row r="203">
       <c r="A203" s="4" t="n">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B203" s="5" t="n">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="C203" s="5" t="n">
-        <v>-0.875</v>
+        <v>-0.9</v>
       </c>
       <c r="D203" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E203" s="4" t="inlineStr"/>
       <c r="G203" s="4" t="n">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H203" s="4" t="n">
         <v>0</v>
@@ -6331,20 +6439,20 @@
     </row>
     <row r="204">
       <c r="A204" s="4" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B204" s="5" t="n">
-        <v>0.88</v>
+        <v>0.905</v>
       </c>
       <c r="C204" s="5" t="n">
-        <v>-0.88</v>
+        <v>-0.905</v>
       </c>
       <c r="D204" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E204" s="4" t="inlineStr"/>
       <c r="G204" s="4" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H204" s="4" t="n">
         <v>0</v>
@@ -6362,20 +6470,20 @@
     </row>
     <row r="205">
       <c r="A205" s="4" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B205" s="5" t="n">
-        <v>0.885</v>
+        <v>0.91</v>
       </c>
       <c r="C205" s="5" t="n">
-        <v>-0.885</v>
+        <v>-0.91</v>
       </c>
       <c r="D205" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E205" s="4" t="inlineStr"/>
       <c r="G205" s="4" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H205" s="4" t="n">
         <v>0</v>
@@ -6393,20 +6501,20 @@
     </row>
     <row r="206">
       <c r="A206" s="4" t="n">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B206" s="5" t="n">
-        <v>0.89</v>
+        <v>0.915</v>
       </c>
       <c r="C206" s="5" t="n">
-        <v>-0.89</v>
+        <v>-0.915</v>
       </c>
       <c r="D206" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E206" s="4" t="inlineStr"/>
       <c r="G206" s="4" t="n">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H206" s="4" t="n">
         <v>0</v>
@@ -6424,20 +6532,20 @@
     </row>
     <row r="207">
       <c r="A207" s="4" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B207" s="5" t="n">
-        <v>0.895</v>
+        <v>0.92</v>
       </c>
       <c r="C207" s="5" t="n">
-        <v>-0.895</v>
+        <v>-0.92</v>
       </c>
       <c r="D207" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E207" s="4" t="inlineStr"/>
       <c r="G207" s="4" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H207" s="4" t="n">
         <v>0</v>
@@ -6455,20 +6563,20 @@
     </row>
     <row r="208">
       <c r="A208" s="4" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B208" s="5" t="n">
-        <v>0.9</v>
+        <v>0.925</v>
       </c>
       <c r="C208" s="5" t="n">
-        <v>-0.9</v>
+        <v>-0.925</v>
       </c>
       <c r="D208" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E208" s="4" t="inlineStr"/>
       <c r="G208" s="4" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H208" s="4" t="n">
         <v>0</v>
@@ -6486,20 +6594,20 @@
     </row>
     <row r="209">
       <c r="A209" s="4" t="n">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B209" s="5" t="n">
-        <v>0.905</v>
+        <v>0.93</v>
       </c>
       <c r="C209" s="5" t="n">
-        <v>-0.905</v>
+        <v>-0.93</v>
       </c>
       <c r="D209" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E209" s="4" t="inlineStr"/>
       <c r="G209" s="4" t="n">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H209" s="4" t="n">
         <v>0</v>
@@ -6517,20 +6625,20 @@
     </row>
     <row r="210">
       <c r="A210" s="4" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B210" s="5" t="n">
-        <v>0.91</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="C210" s="5" t="n">
-        <v>-0.91</v>
+        <v>-0.9350000000000001</v>
       </c>
       <c r="D210" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E210" s="4" t="inlineStr"/>
       <c r="G210" s="4" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H210" s="4" t="n">
         <v>0</v>
@@ -6548,20 +6656,20 @@
     </row>
     <row r="211">
       <c r="A211" s="4" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B211" s="5" t="n">
-        <v>0.915</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C211" s="5" t="n">
-        <v>-0.915</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="D211" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E211" s="4" t="inlineStr"/>
       <c r="G211" s="4" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H211" s="4" t="n">
         <v>0</v>
@@ -6579,20 +6687,20 @@
     </row>
     <row r="212">
       <c r="A212" s="4" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B212" s="5" t="n">
-        <v>0.92</v>
+        <v>0.945</v>
       </c>
       <c r="C212" s="5" t="n">
-        <v>-0.92</v>
+        <v>-0.945</v>
       </c>
       <c r="D212" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E212" s="4" t="inlineStr"/>
       <c r="G212" s="4" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H212" s="4" t="n">
         <v>0</v>
@@ -6610,20 +6718,20 @@
     </row>
     <row r="213">
       <c r="A213" s="4" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B213" s="5" t="n">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="C213" s="5" t="n">
-        <v>-0.925</v>
+        <v>-0.95</v>
       </c>
       <c r="D213" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E213" s="4" t="inlineStr"/>
       <c r="G213" s="4" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H213" s="4" t="n">
         <v>0</v>
@@ -6641,20 +6749,20 @@
     </row>
     <row r="214">
       <c r="A214" s="4" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B214" s="5" t="n">
-        <v>0.93</v>
+        <v>0.955</v>
       </c>
       <c r="C214" s="5" t="n">
-        <v>-0.93</v>
+        <v>-0.955</v>
       </c>
       <c r="D214" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E214" s="4" t="inlineStr"/>
       <c r="G214" s="4" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H214" s="4" t="n">
         <v>0</v>
@@ -6672,20 +6780,20 @@
     </row>
     <row r="215">
       <c r="A215" s="4" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B215" s="5" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="C215" s="5" t="n">
-        <v>-0.9350000000000001</v>
+        <v>-0.96</v>
       </c>
       <c r="D215" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E215" s="4" t="inlineStr"/>
       <c r="G215" s="4" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H215" s="4" t="n">
         <v>0</v>
@@ -6703,20 +6811,20 @@
     </row>
     <row r="216">
       <c r="A216" s="4" t="n">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B216" s="5" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.965</v>
       </c>
       <c r="C216" s="5" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.965</v>
       </c>
       <c r="D216" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E216" s="4" t="inlineStr"/>
       <c r="G216" s="4" t="n">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H216" s="4" t="n">
         <v>0</v>
@@ -6734,20 +6842,20 @@
     </row>
     <row r="217">
       <c r="A217" s="4" t="n">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B217" s="5" t="n">
-        <v>0.945</v>
+        <v>0.97</v>
       </c>
       <c r="C217" s="5" t="n">
-        <v>-0.945</v>
+        <v>-0.97</v>
       </c>
       <c r="D217" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E217" s="4" t="inlineStr"/>
       <c r="G217" s="4" t="n">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H217" s="4" t="n">
         <v>0</v>
@@ -6765,20 +6873,20 @@
     </row>
     <row r="218">
       <c r="A218" s="4" t="n">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B218" s="5" t="n">
-        <v>0.95</v>
+        <v>0.975</v>
       </c>
       <c r="C218" s="5" t="n">
-        <v>-0.95</v>
+        <v>-0.975</v>
       </c>
       <c r="D218" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E218" s="4" t="inlineStr"/>
       <c r="G218" s="4" t="n">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="H218" s="4" t="n">
         <v>0</v>
@@ -6796,20 +6904,20 @@
     </row>
     <row r="219">
       <c r="A219" s="4" t="n">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B219" s="5" t="n">
-        <v>0.955</v>
+        <v>0.98</v>
       </c>
       <c r="C219" s="5" t="n">
-        <v>-0.955</v>
+        <v>-0.98</v>
       </c>
       <c r="D219" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E219" s="4" t="inlineStr"/>
       <c r="G219" s="4" t="n">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H219" s="4" t="n">
         <v>0</v>
@@ -6827,20 +6935,20 @@
     </row>
     <row r="220">
       <c r="A220" s="4" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B220" s="5" t="n">
-        <v>0.96</v>
+        <v>0.985</v>
       </c>
       <c r="C220" s="5" t="n">
-        <v>-0.96</v>
+        <v>-0.985</v>
       </c>
       <c r="D220" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E220" s="4" t="inlineStr"/>
       <c r="G220" s="4" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H220" s="4" t="n">
         <v>0</v>
@@ -6858,20 +6966,20 @@
     </row>
     <row r="221">
       <c r="A221" s="4" t="n">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B221" s="5" t="n">
-        <v>0.965</v>
+        <v>0.99</v>
       </c>
       <c r="C221" s="5" t="n">
-        <v>-0.965</v>
+        <v>-0.99</v>
       </c>
       <c r="D221" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E221" s="4" t="inlineStr"/>
       <c r="G221" s="4" t="n">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H221" s="4" t="n">
         <v>0</v>
@@ -6889,20 +6997,20 @@
     </row>
     <row r="222">
       <c r="A222" s="4" t="n">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B222" s="5" t="n">
-        <v>0.97</v>
+        <v>0.995</v>
       </c>
       <c r="C222" s="5" t="n">
-        <v>-0.97</v>
+        <v>-0.995</v>
       </c>
       <c r="D222" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E222" s="4" t="inlineStr"/>
       <c r="G222" s="4" t="n">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H222" s="4" t="n">
         <v>0</v>
@@ -6920,20 +7028,20 @@
     </row>
     <row r="223">
       <c r="A223" s="4" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B223" s="5" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="C223" s="5" t="n">
-        <v>-0.975</v>
+        <v>-1</v>
       </c>
       <c r="D223" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E223" s="4" t="inlineStr"/>
       <c r="G223" s="4" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H223" s="4" t="n">
         <v>0</v>
@@ -6951,20 +7059,20 @@
     </row>
     <row r="224">
       <c r="A224" s="4" t="n">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B224" s="5" t="n">
-        <v>0.98</v>
+        <v>1.005</v>
       </c>
       <c r="C224" s="5" t="n">
-        <v>-0.98</v>
+        <v>-1.005</v>
       </c>
       <c r="D224" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E224" s="4" t="inlineStr"/>
       <c r="G224" s="4" t="n">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H224" s="4" t="n">
         <v>0</v>
@@ -6982,20 +7090,20 @@
     </row>
     <row r="225">
       <c r="A225" s="4" t="n">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B225" s="5" t="n">
-        <v>0.985</v>
+        <v>1.01</v>
       </c>
       <c r="C225" s="5" t="n">
-        <v>-0.985</v>
+        <v>-1.01</v>
       </c>
       <c r="D225" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E225" s="4" t="inlineStr"/>
       <c r="G225" s="4" t="n">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H225" s="4" t="n">
         <v>0</v>
@@ -7013,20 +7121,20 @@
     </row>
     <row r="226">
       <c r="A226" s="4" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B226" s="5" t="n">
-        <v>0.99</v>
+        <v>1.015</v>
       </c>
       <c r="C226" s="5" t="n">
-        <v>-0.99</v>
+        <v>-1.015</v>
       </c>
       <c r="D226" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E226" s="4" t="inlineStr"/>
       <c r="G226" s="4" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H226" s="4" t="n">
         <v>0</v>
@@ -7044,20 +7152,20 @@
     </row>
     <row r="227">
       <c r="A227" s="4" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B227" s="5" t="n">
-        <v>0.995</v>
+        <v>1.02</v>
       </c>
       <c r="C227" s="5" t="n">
-        <v>-0.995</v>
+        <v>-1.02</v>
       </c>
       <c r="D227" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E227" s="4" t="inlineStr"/>
       <c r="G227" s="4" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H227" s="4" t="n">
         <v>0</v>
@@ -7075,20 +7183,20 @@
     </row>
     <row r="228">
       <c r="A228" s="4" t="n">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B228" s="5" t="n">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="C228" s="5" t="n">
-        <v>-1</v>
+        <v>-1.025</v>
       </c>
       <c r="D228" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E228" s="4" t="inlineStr"/>
       <c r="G228" s="4" t="n">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H228" s="4" t="n">
         <v>0</v>
@@ -7106,20 +7214,20 @@
     </row>
     <row r="229">
       <c r="A229" s="4" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B229" s="5" t="n">
-        <v>1.005</v>
+        <v>1.03</v>
       </c>
       <c r="C229" s="5" t="n">
-        <v>-1.005</v>
+        <v>-1.03</v>
       </c>
       <c r="D229" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E229" s="4" t="inlineStr"/>
       <c r="G229" s="4" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H229" s="4" t="n">
         <v>0</v>
@@ -7137,20 +7245,20 @@
     </row>
     <row r="230">
       <c r="A230" s="4" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B230" s="5" t="n">
-        <v>1.01</v>
+        <v>1.035</v>
       </c>
       <c r="C230" s="5" t="n">
-        <v>-1.01</v>
+        <v>-1.035</v>
       </c>
       <c r="D230" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E230" s="4" t="inlineStr"/>
       <c r="G230" s="4" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H230" s="4" t="n">
         <v>0</v>
@@ -7168,20 +7276,20 @@
     </row>
     <row r="231">
       <c r="A231" s="4" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B231" s="5" t="n">
-        <v>1.015</v>
+        <v>1.04</v>
       </c>
       <c r="C231" s="5" t="n">
-        <v>-1.015</v>
+        <v>-1.04</v>
       </c>
       <c r="D231" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E231" s="4" t="inlineStr"/>
       <c r="G231" s="4" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H231" s="4" t="n">
         <v>0</v>
@@ -7199,20 +7307,20 @@
     </row>
     <row r="232">
       <c r="A232" s="4" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B232" s="5" t="n">
-        <v>1.02</v>
+        <v>1.045</v>
       </c>
       <c r="C232" s="5" t="n">
-        <v>-1.02</v>
+        <v>-1.045</v>
       </c>
       <c r="D232" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E232" s="4" t="inlineStr"/>
       <c r="G232" s="4" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H232" s="4" t="n">
         <v>0</v>
@@ -7230,20 +7338,20 @@
     </row>
     <row r="233">
       <c r="A233" s="4" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B233" s="5" t="n">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="C233" s="5" t="n">
-        <v>-1.025</v>
+        <v>-1.05</v>
       </c>
       <c r="D233" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E233" s="4" t="inlineStr"/>
       <c r="G233" s="4" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H233" s="4" t="n">
         <v>0</v>
@@ -7261,20 +7369,20 @@
     </row>
     <row r="234">
       <c r="A234" s="4" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B234" s="5" t="n">
-        <v>1.03</v>
+        <v>1.055</v>
       </c>
       <c r="C234" s="5" t="n">
-        <v>-1.03</v>
+        <v>-1.055</v>
       </c>
       <c r="D234" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E234" s="4" t="inlineStr"/>
       <c r="G234" s="4" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H234" s="4" t="n">
         <v>0</v>
@@ -7292,20 +7400,20 @@
     </row>
     <row r="235">
       <c r="A235" s="4" t="n">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B235" s="5" t="n">
-        <v>1.035</v>
+        <v>1.06</v>
       </c>
       <c r="C235" s="5" t="n">
-        <v>-1.035</v>
+        <v>-1.06</v>
       </c>
       <c r="D235" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E235" s="4" t="inlineStr"/>
       <c r="G235" s="4" t="n">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H235" s="4" t="n">
         <v>0</v>
@@ -7323,20 +7431,20 @@
     </row>
     <row r="236">
       <c r="A236" s="4" t="n">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B236" s="5" t="n">
-        <v>1.04</v>
+        <v>1.065</v>
       </c>
       <c r="C236" s="5" t="n">
-        <v>-1.04</v>
+        <v>-1.065</v>
       </c>
       <c r="D236" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E236" s="4" t="inlineStr"/>
       <c r="G236" s="4" t="n">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H236" s="4" t="n">
         <v>0</v>
@@ -7354,20 +7462,20 @@
     </row>
     <row r="237">
       <c r="A237" s="4" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B237" s="5" t="n">
-        <v>1.045</v>
+        <v>1.07</v>
       </c>
       <c r="C237" s="5" t="n">
-        <v>-1.045</v>
+        <v>-1.07</v>
       </c>
       <c r="D237" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E237" s="4" t="inlineStr"/>
       <c r="G237" s="4" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H237" s="4" t="n">
         <v>0</v>
@@ -7385,20 +7493,20 @@
     </row>
     <row r="238">
       <c r="A238" s="4" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B238" s="5" t="n">
-        <v>1.05</v>
+        <v>1.075</v>
       </c>
       <c r="C238" s="5" t="n">
-        <v>-1.05</v>
+        <v>-1.075</v>
       </c>
       <c r="D238" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E238" s="4" t="inlineStr"/>
       <c r="G238" s="4" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H238" s="4" t="n">
         <v>0</v>
@@ -7416,20 +7524,20 @@
     </row>
     <row r="239">
       <c r="A239" s="4" t="n">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B239" s="5" t="n">
-        <v>1.055</v>
+        <v>1.08</v>
       </c>
       <c r="C239" s="5" t="n">
-        <v>-1.055</v>
+        <v>-1.08</v>
       </c>
       <c r="D239" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E239" s="4" t="inlineStr"/>
       <c r="G239" s="4" t="n">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H239" s="4" t="n">
         <v>0</v>
@@ -7447,20 +7555,20 @@
     </row>
     <row r="240">
       <c r="A240" s="4" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B240" s="5" t="n">
-        <v>1.06</v>
+        <v>1.085</v>
       </c>
       <c r="C240" s="5" t="n">
-        <v>-1.06</v>
+        <v>-1.085</v>
       </c>
       <c r="D240" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E240" s="4" t="inlineStr"/>
       <c r="G240" s="4" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H240" s="4" t="n">
         <v>0</v>
@@ -7478,20 +7586,20 @@
     </row>
     <row r="241">
       <c r="A241" s="4" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B241" s="5" t="n">
-        <v>1.065</v>
+        <v>1.09</v>
       </c>
       <c r="C241" s="5" t="n">
-        <v>-1.065</v>
+        <v>-1.09</v>
       </c>
       <c r="D241" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E241" s="4" t="inlineStr"/>
       <c r="G241" s="4" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H241" s="4" t="n">
         <v>0</v>
@@ -7509,20 +7617,20 @@
     </row>
     <row r="242">
       <c r="A242" s="4" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B242" s="5" t="n">
-        <v>1.07</v>
+        <v>1.095</v>
       </c>
       <c r="C242" s="5" t="n">
-        <v>-1.07</v>
+        <v>-1.095</v>
       </c>
       <c r="D242" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E242" s="4" t="inlineStr"/>
       <c r="G242" s="4" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H242" s="4" t="n">
         <v>0</v>
@@ -7540,20 +7648,20 @@
     </row>
     <row r="243">
       <c r="A243" s="4" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B243" s="5" t="n">
-        <v>1.075</v>
+        <v>1.1</v>
       </c>
       <c r="C243" s="5" t="n">
-        <v>-1.075</v>
+        <v>-1.1</v>
       </c>
       <c r="D243" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E243" s="4" t="inlineStr"/>
       <c r="G243" s="4" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H243" s="4" t="n">
         <v>0</v>
@@ -7571,20 +7679,20 @@
     </row>
     <row r="244">
       <c r="A244" s="4" t="n">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B244" s="5" t="n">
-        <v>1.08</v>
+        <v>1.105</v>
       </c>
       <c r="C244" s="5" t="n">
-        <v>-1.08</v>
+        <v>-1.105</v>
       </c>
       <c r="D244" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E244" s="4" t="inlineStr"/>
       <c r="G244" s="4" t="n">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H244" s="4" t="n">
         <v>0</v>
@@ -7602,20 +7710,20 @@
     </row>
     <row r="245">
       <c r="A245" s="4" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B245" s="5" t="n">
-        <v>1.085</v>
+        <v>1.11</v>
       </c>
       <c r="C245" s="5" t="n">
-        <v>-1.085</v>
+        <v>-1.11</v>
       </c>
       <c r="D245" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E245" s="4" t="inlineStr"/>
       <c r="G245" s="4" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H245" s="4" t="n">
         <v>0</v>
@@ -7633,20 +7741,20 @@
     </row>
     <row r="246">
       <c r="A246" s="4" t="n">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B246" s="5" t="n">
-        <v>1.09</v>
+        <v>1.115</v>
       </c>
       <c r="C246" s="5" t="n">
-        <v>-1.09</v>
+        <v>-1.115</v>
       </c>
       <c r="D246" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E246" s="4" t="inlineStr"/>
       <c r="G246" s="4" t="n">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H246" s="4" t="n">
         <v>0</v>
@@ -7664,20 +7772,20 @@
     </row>
     <row r="247">
       <c r="A247" s="4" t="n">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B247" s="5" t="n">
-        <v>1.095</v>
+        <v>1.12</v>
       </c>
       <c r="C247" s="5" t="n">
-        <v>-1.095</v>
+        <v>-1.12</v>
       </c>
       <c r="D247" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E247" s="4" t="inlineStr"/>
       <c r="G247" s="4" t="n">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H247" s="4" t="n">
         <v>0</v>
@@ -7695,20 +7803,20 @@
     </row>
     <row r="248">
       <c r="A248" s="4" t="n">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B248" s="5" t="n">
-        <v>1.1</v>
+        <v>1.125</v>
       </c>
       <c r="C248" s="5" t="n">
-        <v>-1.1</v>
+        <v>-1.125</v>
       </c>
       <c r="D248" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E248" s="4" t="inlineStr"/>
       <c r="G248" s="4" t="n">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H248" s="4" t="n">
         <v>0</v>
@@ -7726,20 +7834,20 @@
     </row>
     <row r="249">
       <c r="A249" s="4" t="n">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B249" s="5" t="n">
-        <v>1.105</v>
+        <v>1.13</v>
       </c>
       <c r="C249" s="5" t="n">
-        <v>-1.105</v>
+        <v>-1.13</v>
       </c>
       <c r="D249" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E249" s="4" t="inlineStr"/>
       <c r="G249" s="4" t="n">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H249" s="4" t="n">
         <v>0</v>
@@ -7757,20 +7865,20 @@
     </row>
     <row r="250">
       <c r="A250" s="4" t="n">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B250" s="5" t="n">
-        <v>1.11</v>
+        <v>1.135</v>
       </c>
       <c r="C250" s="5" t="n">
-        <v>-1.11</v>
+        <v>-1.135</v>
       </c>
       <c r="D250" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E250" s="4" t="inlineStr"/>
       <c r="G250" s="4" t="n">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H250" s="4" t="n">
         <v>0</v>
@@ -7788,20 +7896,20 @@
     </row>
     <row r="251">
       <c r="A251" s="4" t="n">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B251" s="5" t="n">
-        <v>1.115</v>
+        <v>1.14</v>
       </c>
       <c r="C251" s="5" t="n">
-        <v>-1.115</v>
+        <v>-1.14</v>
       </c>
       <c r="D251" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E251" s="4" t="inlineStr"/>
       <c r="G251" s="4" t="n">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H251" s="4" t="n">
         <v>0</v>
@@ -7819,20 +7927,20 @@
     </row>
     <row r="252">
       <c r="A252" s="4" t="n">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B252" s="5" t="n">
-        <v>1.12</v>
+        <v>1.145</v>
       </c>
       <c r="C252" s="5" t="n">
-        <v>-1.12</v>
+        <v>-1.145</v>
       </c>
       <c r="D252" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E252" s="4" t="inlineStr"/>
       <c r="G252" s="4" t="n">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H252" s="4" t="n">
         <v>0</v>
@@ -7850,20 +7958,20 @@
     </row>
     <row r="253">
       <c r="A253" s="4" t="n">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B253" s="5" t="n">
-        <v>1.125</v>
+        <v>1.15</v>
       </c>
       <c r="C253" s="5" t="n">
-        <v>-1.125</v>
+        <v>-1.15</v>
       </c>
       <c r="D253" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E253" s="4" t="inlineStr"/>
       <c r="G253" s="4" t="n">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H253" s="4" t="n">
         <v>0</v>
@@ -7881,20 +7989,20 @@
     </row>
     <row r="254">
       <c r="A254" s="4" t="n">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B254" s="5" t="n">
-        <v>1.13</v>
+        <v>1.155</v>
       </c>
       <c r="C254" s="5" t="n">
-        <v>-1.13</v>
+        <v>-1.155</v>
       </c>
       <c r="D254" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E254" s="4" t="inlineStr"/>
       <c r="G254" s="4" t="n">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H254" s="4" t="n">
         <v>0</v>
@@ -7912,20 +8020,20 @@
     </row>
     <row r="255">
       <c r="A255" s="4" t="n">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B255" s="5" t="n">
-        <v>1.135</v>
+        <v>1.16</v>
       </c>
       <c r="C255" s="5" t="n">
-        <v>-1.135</v>
+        <v>-1.16</v>
       </c>
       <c r="D255" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E255" s="4" t="inlineStr"/>
       <c r="G255" s="4" t="n">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H255" s="4" t="n">
         <v>0</v>
@@ -7943,20 +8051,20 @@
     </row>
     <row r="256">
       <c r="A256" s="4" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B256" s="5" t="n">
-        <v>1.14</v>
+        <v>1.165</v>
       </c>
       <c r="C256" s="5" t="n">
-        <v>-1.14</v>
+        <v>-1.165</v>
       </c>
       <c r="D256" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E256" s="4" t="inlineStr"/>
       <c r="G256" s="4" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H256" s="4" t="n">
         <v>0</v>
@@ -7974,20 +8082,20 @@
     </row>
     <row r="257">
       <c r="A257" s="4" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B257" s="5" t="n">
-        <v>1.145</v>
+        <v>1.17</v>
       </c>
       <c r="C257" s="5" t="n">
-        <v>-1.145</v>
+        <v>-1.17</v>
       </c>
       <c r="D257" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E257" s="4" t="inlineStr"/>
       <c r="G257" s="4" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H257" s="4" t="n">
         <v>0</v>
@@ -8005,20 +8113,20 @@
     </row>
     <row r="258">
       <c r="A258" s="4" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B258" s="5" t="n">
-        <v>1.15</v>
+        <v>1.175</v>
       </c>
       <c r="C258" s="5" t="n">
-        <v>-1.15</v>
+        <v>-1.175</v>
       </c>
       <c r="D258" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E258" s="4" t="inlineStr"/>
       <c r="G258" s="4" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H258" s="4" t="n">
         <v>0</v>
@@ -8036,20 +8144,20 @@
     </row>
     <row r="259">
       <c r="A259" s="4" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B259" s="5" t="n">
-        <v>1.155</v>
+        <v>1.18</v>
       </c>
       <c r="C259" s="5" t="n">
-        <v>-1.155</v>
+        <v>-1.18</v>
       </c>
       <c r="D259" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E259" s="4" t="inlineStr"/>
       <c r="G259" s="4" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H259" s="4" t="n">
         <v>0</v>
@@ -8067,20 +8175,20 @@
     </row>
     <row r="260">
       <c r="A260" s="4" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B260" s="5" t="n">
-        <v>1.16</v>
+        <v>1.185</v>
       </c>
       <c r="C260" s="5" t="n">
-        <v>-1.16</v>
+        <v>-1.185</v>
       </c>
       <c r="D260" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E260" s="4" t="inlineStr"/>
       <c r="G260" s="4" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H260" s="4" t="n">
         <v>0</v>
@@ -8098,20 +8206,20 @@
     </row>
     <row r="261">
       <c r="A261" s="4" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B261" s="5" t="n">
-        <v>1.165</v>
+        <v>1.19</v>
       </c>
       <c r="C261" s="5" t="n">
-        <v>-1.165</v>
+        <v>-1.19</v>
       </c>
       <c r="D261" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E261" s="4" t="inlineStr"/>
       <c r="G261" s="4" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H261" s="4" t="n">
         <v>0</v>
@@ -8129,20 +8237,20 @@
     </row>
     <row r="262">
       <c r="A262" s="4" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B262" s="5" t="n">
-        <v>1.17</v>
+        <v>1.195</v>
       </c>
       <c r="C262" s="5" t="n">
-        <v>-1.17</v>
+        <v>-1.195</v>
       </c>
       <c r="D262" s="5" t="n">
         <v>0.03</v>
       </c>
       <c r="E262" s="4" t="inlineStr"/>
       <c r="G262" s="4" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="H262" s="4" t="n">
         <v>0</v>
@@ -8157,161 +8265,6 @@
       <c r="L262" s="4" t="inlineStr"/>
       <c r="M262" s="6" t="inlineStr"/>
       <c r="N262" s="4" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="4" t="n">
-        <v>236</v>
-      </c>
-      <c r="B263" s="5" t="n">
-        <v>1.175</v>
-      </c>
-      <c r="C263" s="5" t="n">
-        <v>-1.175</v>
-      </c>
-      <c r="D263" s="5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E263" s="4" t="inlineStr"/>
-      <c r="G263" s="4" t="n">
-        <v>236</v>
-      </c>
-      <c r="H263" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K263" s="6" t="inlineStr"/>
-      <c r="L263" s="4" t="inlineStr"/>
-      <c r="M263" s="6" t="inlineStr"/>
-      <c r="N263" s="4" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="4" t="n">
-        <v>237</v>
-      </c>
-      <c r="B264" s="5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="C264" s="5" t="n">
-        <v>-1.18</v>
-      </c>
-      <c r="D264" s="5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E264" s="4" t="inlineStr"/>
-      <c r="G264" s="4" t="n">
-        <v>237</v>
-      </c>
-      <c r="H264" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K264" s="6" t="inlineStr"/>
-      <c r="L264" s="4" t="inlineStr"/>
-      <c r="M264" s="6" t="inlineStr"/>
-      <c r="N264" s="4" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="4" t="n">
-        <v>238</v>
-      </c>
-      <c r="B265" s="5" t="n">
-        <v>1.185</v>
-      </c>
-      <c r="C265" s="5" t="n">
-        <v>-1.185</v>
-      </c>
-      <c r="D265" s="5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E265" s="4" t="inlineStr"/>
-      <c r="G265" s="4" t="n">
-        <v>238</v>
-      </c>
-      <c r="H265" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K265" s="6" t="inlineStr"/>
-      <c r="L265" s="4" t="inlineStr"/>
-      <c r="M265" s="6" t="inlineStr"/>
-      <c r="N265" s="4" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="4" t="n">
-        <v>239</v>
-      </c>
-      <c r="B266" s="5" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="C266" s="5" t="n">
-        <v>-1.19</v>
-      </c>
-      <c r="D266" s="5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E266" s="4" t="inlineStr"/>
-      <c r="G266" s="4" t="n">
-        <v>239</v>
-      </c>
-      <c r="H266" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K266" s="6" t="inlineStr"/>
-      <c r="L266" s="4" t="inlineStr"/>
-      <c r="M266" s="6" t="inlineStr"/>
-      <c r="N266" s="4" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="4" t="n">
-        <v>240</v>
-      </c>
-      <c r="B267" s="5" t="n">
-        <v>1.195</v>
-      </c>
-      <c r="C267" s="5" t="n">
-        <v>-1.195</v>
-      </c>
-      <c r="D267" s="5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E267" s="4" t="inlineStr"/>
-      <c r="G267" s="4" t="n">
-        <v>240</v>
-      </c>
-      <c r="H267" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K267" s="6" t="inlineStr"/>
-      <c r="L267" s="4" t="inlineStr"/>
-      <c r="M267" s="6" t="inlineStr"/>
-      <c r="N267" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/phoenix_grid_template_v3.xlsx
+++ b/phoenix_grid_template_v3.xlsx
@@ -574,10 +574,9 @@
           <t>1티어 금액 (USD)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
+      <c r="B6">
+        <f>B4/B5</f>
+        <v/>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -670,11 +669,6 @@
           <t>KIS APP KEY</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>your_kis_app_key_here</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -710,12 +704,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16"/>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>시세 조회 주기 (초)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>40</v>
+      </c>
+    </row>
     <row r="17">
       <c r="A17" s="1">
         <f>== 텔레그램 알림 ===</f>
         <v/>
       </c>
+      <c r="B17" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -730,6 +736,9 @@
           <t>텔레그램 Token</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -737,10 +746,8 @@
           <t>알림 활성화</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="B20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -749,10 +756,8 @@
           <t>Excel 업데이트 주기 (초)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
+      <c r="B21" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -761,10 +766,8 @@
           <t>티어</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>시드비%</t>
-        </is>
+      <c r="B22" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>

--- a/phoenix_grid_template_v3.xlsx
+++ b/phoenix_grid_template_v3.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01_매매전략_기준설정" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02_운용로그_히스토리" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03_시스템설정" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23,7 +24,7 @@
     <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
     <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -38,6 +39,14 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="4">
@@ -78,7 +87,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -93,6 +102,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -8673,4 +8685,246 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Phoenix Trading System - 시스템 설정</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>════════════════════════════════════════════════════════════</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>장시간 설정 (한국 시간 기준)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>════════════════════════════════════════════════════════════</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="12" t="inlineStr">
+        <is>
+          <t>서머타임 (EDT, 3월~11월)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EDT 정규장 개장 (시)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>한국시간 22:30 = 미국 09:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EDT 정규장 개장 (분)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EDT 정규장 마감 (시)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>한국시간 05:00 = 미국 16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EDT 정규장 마감 (분)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="12" t="inlineStr">
+        <is>
+          <t>표준시 (EST, 11월~3월)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EST 정규장 개장 (시)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>23</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>한국시간 23:30 = 미국 09:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EST 정규장 개장 (분)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EST 정규장 마감 (시)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>한국시간 06:00 = 미국 16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EST 정규장 마감 (분)</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="12" t="inlineStr">
+        <is>
+          <t>거래 시간대</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>프리마켓 거래 허용</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>프리마켓 시간에도 거래 (TRUE/FALSE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>애프터마켓 거래 허용</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>애프터마켓 시간에도 거래 (TRUE/FALSE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="12" t="inlineStr">
+        <is>
+          <t>사용 방법:</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1. B열의 값을 수정하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2. 파일 저장 (Ctrl+S)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3. PhoenixTrading.exe 재실행</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4. 재빌드 불필요!</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/phoenix_grid_template_v3.xlsx
+++ b/phoenix_grid_template_v3.xlsx
@@ -681,6 +681,11 @@
           <t>KIS APP KEY</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>your_kis_app_key_here</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8282,10 +8287,9 @@
       <c r="N262" s="4" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8693,7 +8697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8791,134 +8795,194 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EDT 프리마켓 시작 (시)</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>한국시간 17:00 = 미국 04:00</t>
+        </is>
+      </c>
+    </row>
     <row r="13">
-      <c r="A13" s="12" t="inlineStr">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EDT 애프터마켓 종료 (시)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>한국시간 07:00 = 미국 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="12" t="inlineStr">
         <is>
           <t>표준시 (EST, 11월~3월)</t>
         </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>EST 정규장 개장 (시)</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>23</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>한국시간 23:30 = 미국 09:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>EST 정규장 개장 (분)</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EST 정규장 마감 (시)</t>
+          <t>EST 정규장 개장 (시)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>한국시간 06:00 = 미국 16:00</t>
+          <t>한국시간 23:30 = 미국 09:30</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>EST 정규장 개장 (분)</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EST 정규장 마감 (시)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>한국시간 06:00 = 미국 16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>EST 정규장 마감 (분)</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="12" t="inlineStr">
-        <is>
-          <t>거래 시간대</t>
-        </is>
+      <c r="B19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>프리마켓 거래 허용</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+          <t>EST 프리마켓 시작 (시)</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>프리마켓 시간에도 거래 (TRUE/FALSE)</t>
+          <t>한국시간 18:00 = 미국 04:00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>애프터마켓 거래 허용</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+          <t>EST 애프터마켓 종료 (시)</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>애프터마켓 시간에도 거래 (TRUE/FALSE)</t>
+          <t>한국시간 07:00 = 미국 18:00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>사용 방법:</t>
+          <t>거래 시간대</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1. B열의 값을 수정하세요</t>
+          <t>프리마켓 거래 허용</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>프리마켓 시간에도 거래 (TRUE/FALSE)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>애프터마켓 거래 허용</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>애프터마켓 시간에도 거래 (TRUE/FALSE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="12" t="inlineStr">
+        <is>
+          <t>사용 방법:</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1. B열의 값을 수정하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>2. 파일 저장 (Ctrl+S)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>3. PhoenixTrading.exe 재실행</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>4. 재빌드 불필요!</t>
         </is>
